--- a/example/LusMeg00027.xlsx
+++ b/example/LusMeg00027.xlsx
@@ -1723,616 +1723,616 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01678</v>
+        <v>0.01739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03384</v>
+        <v>0.03464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.94877</v>
+        <v>0.9486599999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02959</v>
+        <v>0.03028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0347</v>
+        <v>0.03584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01508</v>
+        <v>0.01565</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02692</v>
+        <v>0.0278</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01134</v>
+        <v>0.01176</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02282</v>
+        <v>0.02357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02011</v>
+        <v>0.02047</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02308</v>
+        <v>0.02394</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0186</v>
+        <v>0.01905</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01376</v>
+        <v>0.01404</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01668</v>
+        <v>0.01723</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.009209999999999999</v>
+        <v>0.00961</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01416</v>
+        <v>0.01468</v>
       </c>
       <c r="S2" t="n">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01605</v>
+        <v>0.01657</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01071</v>
+        <v>0.01047</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01566</v>
+        <v>0.01578</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01483</v>
+        <v>0.01528</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03013</v>
+        <v>0.03059</v>
       </c>
       <c r="Y2" t="n">
+        <v>0.01321</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.01629</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01202</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.01575</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.01402</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.01345</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01641</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.01504</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.01001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.02336</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.01278</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.01685</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.02625</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.01912</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00531</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.00733</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01087</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.01015</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.0128</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.01589</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.01164</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.01537</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.01384</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.01299</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.01518</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.01592</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.01451</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.009639999999999999</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.02258</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.01252</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0166</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.02699</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.01882</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00509</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.00719</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.01247</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.00991</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.01268</v>
-      </c>
       <c r="AU2" t="n">
-        <v>0.01055</v>
+        <v>0.01106</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01626</v>
+        <v>0.01664</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01358</v>
+        <v>0.01389</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01156</v>
+        <v>0.01212</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.01725</v>
+        <v>0.01809</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0208</v>
+        <v>0.02153</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00655</v>
+        <v>0.00668</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.00677</v>
+        <v>0.00713</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01004</v>
+        <v>0.01029</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.01579</v>
+        <v>0.01639</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00882</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02735</v>
+        <v>0.02826</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00818</v>
+        <v>0.00855</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.01221</v>
+        <v>0.01269</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00822</v>
+        <v>0.00876</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01427</v>
+        <v>0.01467</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0086</v>
+        <v>0.00885</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01463</v>
+        <v>0.01519</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.008019999999999999</v>
+        <v>0.00827</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00953</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01528</v>
+        <v>0.01591</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01019</v>
+        <v>0.01058</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01287</v>
+        <v>0.01313</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00658</v>
+        <v>0.00688</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.02398</v>
+        <v>0.02441</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00355</v>
+        <v>0.00371</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00658</v>
+        <v>0.00686</v>
       </c>
       <c r="BV2" t="n">
+        <v>0.00844</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01082</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.01297</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.01368</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.01232</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.01041</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.00611</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.008789999999999999</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.01417</v>
+      </c>
+      <c r="CI2" t="n">
         <v>0.00795</v>
       </c>
-      <c r="BW2" t="n">
-        <v>0.01157</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.01042</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.01257</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.00979</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.0132</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.01178</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.01021</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.01021</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.00604</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.008460000000000001</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.01387</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.00796</v>
-      </c>
       <c r="CJ2" t="n">
-        <v>0.01151</v>
+        <v>0.01189</v>
       </c>
       <c r="CK2" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.00777</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.00868</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.00727</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0.00611</v>
       </c>
-      <c r="CL2" t="n">
-        <v>0.00752</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.00763</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.00874</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.008529999999999999</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.00715</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.00588</v>
-      </c>
       <c r="CR2" t="n">
-        <v>0.00809</v>
+        <v>0.00838</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00605</v>
+        <v>0.00616</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00647</v>
+        <v>0.0066</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01111</v>
+        <v>0.01166</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00835</v>
+        <v>0.008670000000000001</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00535</v>
+        <v>0.00539</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01085</v>
+        <v>0.01144</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00578</v>
+        <v>0.00584</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0046</v>
+        <v>0.00472</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00462</v>
+        <v>0.00482</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00166</v>
+        <v>0.00168</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00923</v>
+        <v>0.00945</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0036</v>
+        <v>0.00374</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0032</v>
+        <v>0.00327</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.00106</v>
+        <v>0.00104</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00347</v>
+        <v>0.0035</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0042</v>
+        <v>0.00431</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00151</v>
+        <v>0.00149</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00669</v>
+        <v>0.00688</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.00304</v>
+        <v>0.00306</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00697</v>
+        <v>0.00731</v>
       </c>
       <c r="DN2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.00528</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.00445</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.008580000000000001</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00701</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.00507</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00199</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.00269</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="EF2" t="n">
         <v>0.00498</v>
       </c>
-      <c r="DO2" t="n">
-        <v>0.00508</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="DQ2" t="n">
+      <c r="EG2" t="n">
         <v>0.00265</v>
       </c>
-      <c r="DR2" t="n">
-        <v>0.00302</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.00145</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.00549</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.00838</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.00673</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.007900000000000001</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.00374</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.00367</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.00483</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.00315</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.00193</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.00259</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.00483</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.00259</v>
-      </c>
       <c r="EH2" t="n">
-        <v>0.00151</v>
+        <v>0.00155</v>
       </c>
       <c r="EI2" t="n">
         <v>0.00151</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00198</v>
+        <v>0.002</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00411</v>
+        <v>0.00396</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00295</v>
+        <v>0.00306</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00282</v>
+        <v>0.00271</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0028</v>
+        <v>0.00291</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00284</v>
+        <v>0.00294</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00339</v>
+        <v>0.00347</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00609</v>
+        <v>0.00629</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00214</v>
+        <v>0.0022</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0031</v>
+        <v>0.00322</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00135</v>
+        <v>0.00131</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00241</v>
+        <v>0.0025</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00356</v>
+        <v>0.0038</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0013</v>
+        <v>0.00131</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.00538</v>
+        <v>0.00559</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00251</v>
+        <v>0.00244</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00238</v>
+        <v>0.00229</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00189</v>
+        <v>0.00186</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.00144</v>
+        <v>0.00145</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00133</v>
+        <v>0.00134</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.00223</v>
+        <v>0.00228</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.00355</v>
+        <v>0.00367</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00349</v>
+        <v>0.00363</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00233</v>
+        <v>0.00226</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00347</v>
+        <v>0.00357</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00237</v>
+        <v>0.00244</v>
       </c>
       <c r="FM2" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.00091</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.00261</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="FR2" t="n">
         <v>0.00299</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.00095</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.00256</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.00464</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.00285</v>
       </c>
       <c r="FS2" t="n">
         <v>0.0022</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00442</v>
+        <v>0.00454</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00099</v>
+        <v>0.00102</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.00427</v>
+        <v>0.00441</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.002</v>
+        <v>0.00207</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00182</v>
+        <v>0.0018</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00204</v>
+        <v>0.00215</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.00337</v>
+        <v>0.0034</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0022</v>
+        <v>0.00225</v>
       </c>
       <c r="GC2" t="n">
         <v>0.00081</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.00295</v>
+        <v>0.00306</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00189</v>
+        <v>0.00183</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0028</v>
+        <v>0.00281</v>
       </c>
       <c r="GG2" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="GH2" t="n">
         <v>0.00078</v>
       </c>
-      <c r="GH2" t="n">
-        <v>0.00081</v>
-      </c>
       <c r="GI2" t="n">
-        <v>0.00172</v>
+        <v>0.00177</v>
       </c>
       <c r="GJ2" t="n">
         <v>0.00183</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.00171</v>
+        <v>0.0018</v>
       </c>
       <c r="GL2" t="n">
         <v>0.00063</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.00247</v>
+        <v>0.00252</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00187</v>
+        <v>0.00181</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.00195</v>
+        <v>0.00198</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00104</v>
+        <v>0.00103</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.00087</v>
+        <v>0.00086</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.00046</v>
+        <v>0.00047</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.00182</v>
+        <v>0.00186</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.00145</v>
+        <v>0.0015</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.00161</v>
+        <v>0.0016</v>
       </c>
       <c r="GV2" t="n">
         <v>0.00078</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.00067</v>
+        <v>0.00066</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.0015</v>
+        <v>0.00148</v>
       </c>
       <c r="GY2" t="n">
         <v>0.00095</v>
@@ -2341,136 +2341,136 @@
         <v>0.00062</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.00275</v>
+        <v>0.00287</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00088</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.00207</v>
+        <v>0.00214</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.0022</v>
+        <v>0.00227</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.00106</v>
+        <v>0.00104</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.00184</v>
+        <v>0.00185</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00079</v>
+        <v>0.00078</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.00206</v>
+        <v>0.00211</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.00086</v>
+        <v>0.00084</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.00065</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.00102</v>
+        <v>0.00105</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.00177</v>
+        <v>0.00175</v>
       </c>
       <c r="HM2" t="n">
         <v>0.00055</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.00156</v>
+        <v>0.00152</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.00152</v>
+        <v>0.00158</v>
       </c>
       <c r="HP2" t="n">
         <v>0.00124</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.00197</v>
+        <v>0.00204</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00066</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.00101</v>
+        <v>0.00099</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.00116</v>
+        <v>0.00114</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.00071</v>
+        <v>0.0007</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="HW2" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.00087</v>
+        <v>0.00086</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.00203</v>
+        <v>0.00204</v>
       </c>
       <c r="IA2" t="n">
         <v>0.00052</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.00076</v>
+        <v>0.00078</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.00104</v>
+        <v>0.00108</v>
       </c>
       <c r="ID2" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="II2" t="n">
         <v>0.00061</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.00112</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.00084</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.00034</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.0006400000000000001</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.00062</v>
       </c>
       <c r="IJ2" t="n">
         <v>0.00044</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.0008</v>
+        <v>0.00083</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.00098</v>
+        <v>0.001</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.00052</v>
+        <v>0.00054</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="IO2" t="n">
         <v>0.0004</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.00053</v>
+        <v>0.00054</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="IS2" t="n">
         <v>0.00033</v>
@@ -2493,763 +2493,763 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01998</v>
+        <v>0.02046</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04444</v>
+        <v>0.04495</v>
       </c>
       <c r="E3" t="n">
-        <v>0.94152</v>
+        <v>0.94119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03682</v>
+        <v>0.03761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04444</v>
+        <v>0.0454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02356</v>
+        <v>0.02464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04148</v>
+        <v>0.04267</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01657</v>
+        <v>0.0171</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02507</v>
+        <v>0.02555</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0326</v>
+        <v>0.03313</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02558</v>
+        <v>0.02589</v>
       </c>
       <c r="N3" t="n">
+        <v>0.02314</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02395</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01336</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.03881</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.03908</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.02528</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02396</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.02651</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03405</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.02546</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.02804</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01984</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02094</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.01708</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.02166</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.00766</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.01432</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.02568</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.01115</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.04832</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.00966</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.01952</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.01302</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.01352</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.008840000000000001</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.01465</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02054</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.01748</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.02267</v>
+      </c>
+      <c r="AY3" t="n">
         <v>0.02282</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.02163</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02355</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01289</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.03962</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.03796</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.02517</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01618</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02391</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02514</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0274</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.01922</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.01704</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02237</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02175</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.00726</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.02106</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.01392</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.02495</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.01102</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.01877</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.04939</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.02773</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.00733</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00992</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.01893</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.01281</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.01328</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.00881</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.0142</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.02033</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.01731</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.02174</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.02192</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>0.02904</v>
+        <v>0.03012</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.00908</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.00987</v>
+        <v>0.01037</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.02009</v>
+        <v>0.02027</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02321</v>
+        <v>0.02421</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01642</v>
+        <v>0.0166</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.02479</v>
+        <v>0.02478</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.009050000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02311</v>
+        <v>0.02331</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0119</v>
+        <v>0.01224</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01331</v>
+        <v>0.01344</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01356</v>
+        <v>0.01381</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.01938</v>
+        <v>0.01957</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.008370000000000001</v>
+        <v>0.00848</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.01588</v>
+        <v>0.01595</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0156</v>
+        <v>0.01604</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01456</v>
+        <v>0.01497</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.01615</v>
+        <v>0.0162</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01016</v>
+        <v>0.01047</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01768</v>
+        <v>0.01791</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.00641</v>
+        <v>0.00664</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0102</v>
+        <v>0.0107</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.00891</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01289</v>
+        <v>0.01306</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.01598</v>
+        <v>0.0161</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01401</v>
+        <v>0.01413</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01025</v>
+        <v>0.01033</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01715</v>
+        <v>0.01773</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.01667</v>
+        <v>0.01675</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.03078</v>
+        <v>0.032</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.01438</v>
+        <v>0.01478</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.01141</v>
+        <v>0.01146</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00763</v>
+        <v>0.00777</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01774</v>
+        <v>0.01805</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01353</v>
+        <v>0.01371</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.00864</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02233</v>
+        <v>0.02276</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.009169999999999999</v>
+        <v>0.00925</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.007889999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.01109</v>
+        <v>0.01121</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01259</v>
+        <v>0.01284</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01031</v>
+        <v>0.01042</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.00771</v>
+        <v>0.00753</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.01019</v>
+        <v>0.01028</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01865</v>
+        <v>0.01928</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0071</v>
+        <v>0.00718</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.00446</v>
+        <v>0.00447</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.00703</v>
+        <v>0.00704</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.01461</v>
+        <v>0.01494</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.01115</v>
+        <v>0.01133</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.00605</v>
+        <v>0.00595</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03014</v>
+        <v>0.03034</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00692</v>
+        <v>0.00683</v>
       </c>
       <c r="DA3" t="n">
         <v>0.0046</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.00579</v>
+        <v>0.00601</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.00206</v>
+        <v>0.00198</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.00767</v>
+        <v>0.00783</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.00706</v>
+        <v>0.00697</v>
       </c>
       <c r="DG3" t="n">
         <v>0.00134</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.00425</v>
+        <v>0.00414</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.00436</v>
+        <v>0.00435</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.00201</v>
+        <v>0.00204</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.00941</v>
+        <v>0.00933</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.00324</v>
+        <v>0.00326</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01033</v>
+        <v>0.0106</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.00864</v>
+        <v>0.00859</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.02109</v>
+        <v>0.02171</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0078</v>
+        <v>0.007979999999999999</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.00486</v>
+        <v>0.00501</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0044</v>
+        <v>0.00447</v>
       </c>
       <c r="DS3" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.00641</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.01185</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.04612</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0.00903</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.00742</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.00777</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="EC3" t="n">
         <v>0.00235</v>
       </c>
-      <c r="DT3" t="n">
-        <v>0.00638</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0.01171</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0.04502</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0.009140000000000001</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.00457</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0.01284</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.00765</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.00464</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0.0022</v>
-      </c>
       <c r="ED3" t="n">
-        <v>0.00499</v>
+        <v>0.00497</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.00317</v>
+        <v>0.00328</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.00707</v>
+        <v>0.00701</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.00371</v>
+        <v>0.00376</v>
       </c>
       <c r="EH3" t="n">
         <v>0.00253</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.00134</v>
+        <v>0.00128</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.00225</v>
+        <v>0.00227</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0066</v>
+        <v>0.00669</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0067</v>
+        <v>0.00691</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00314</v>
+        <v>0.00319</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.00737</v>
+        <v>0.0074</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.00597</v>
+        <v>0.00618</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00458</v>
+        <v>0.00469</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01367</v>
+        <v>0.01355</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00338</v>
+        <v>0.00339</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.00486</v>
+        <v>0.00489</v>
       </c>
       <c r="ET3" t="n">
         <v>0.00163</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.00442</v>
+        <v>0.00449</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.00368</v>
+        <v>0.00363</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.00717</v>
+        <v>0.0073</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.00205</v>
+        <v>0.00207</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00149</v>
+        <v>0.00153</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01053</v>
+        <v>0.01087</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.00337</v>
+        <v>0.00338</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.00245</v>
+        <v>0.00247</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.00216</v>
+        <v>0.00208</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.00248</v>
+        <v>0.00246</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.00201</v>
+        <v>0.00196</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.00391</v>
+        <v>0.00396</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.00703</v>
+        <v>0.00722</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.00112</v>
+        <v>0.00108</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.00334</v>
+        <v>0.00339</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.00265</v>
+        <v>0.0026</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.00842</v>
+        <v>0.0086</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.00345</v>
+        <v>0.00354</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.00588</v>
+        <v>0.00599</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.00185</v>
+        <v>0.00189</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.00676</v>
+        <v>0.0069</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0022</v>
+        <v>0.00215</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.00769</v>
+        <v>0.00774</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.007889999999999999</v>
+        <v>0.00835</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.00173</v>
+        <v>0.00172</v>
       </c>
       <c r="FT3" t="n">
         <v>0.00783</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.00172</v>
+        <v>0.00176</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.00653</v>
+        <v>0.00671</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.00398</v>
+        <v>0.0042</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.00239</v>
+        <v>0.00241</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.00289</v>
+        <v>0.00299</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00422</v>
+        <v>0.00439</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.00457</v>
+        <v>0.00444</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.00341</v>
+        <v>0.0034</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00088</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.00693</v>
+        <v>0.00716</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.00218</v>
+        <v>0.00214</v>
       </c>
       <c r="GF3" t="n">
         <v>0.00876</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.00129</v>
+        <v>0.00126</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.00114</v>
+        <v>0.00109</v>
       </c>
       <c r="GI3" t="n">
-        <v>0.00482</v>
+        <v>0.00479</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.00389</v>
+        <v>0.00394</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.00467</v>
+        <v>0.00486</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.00087</v>
+        <v>0.0008</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.00362</v>
+        <v>0.00377</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.00214</v>
+        <v>0.00217</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.0034</v>
+        <v>0.00338</v>
       </c>
       <c r="GP3" t="n">
         <v>0.0012</v>
       </c>
       <c r="GQ3" t="n">
+        <v>0.00098</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.00238</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0.00224</v>
+      </c>
+      <c r="GV3" t="n">
         <v>0.00101</v>
       </c>
-      <c r="GR3" t="n">
-        <v>0.00237</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0.00617</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0.00425</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0.00231</v>
-      </c>
-      <c r="GV3" t="n">
+      <c r="GW3" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="GY3" t="n">
         <v>0.00102</v>
       </c>
-      <c r="GW3" t="n">
-        <v>0.00125</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.00193</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0.00104</v>
-      </c>
       <c r="GZ3" t="n">
-        <v>0.00079</v>
+        <v>0.00077</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.00624</v>
+        <v>0.00627</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00094</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.00382</v>
+        <v>0.00392</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.00414</v>
+        <v>0.00426</v>
       </c>
       <c r="HE3" t="n">
         <v>0.00124</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.00453</v>
+        <v>0.00456</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.00088</v>
+        <v>0.00086</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.00225</v>
+        <v>0.00232</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.00111</v>
+        <v>0.0011</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.00127</v>
+        <v>0.00131</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.00136</v>
+        <v>0.00138</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.00214</v>
+        <v>0.00212</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.00066</v>
+        <v>0.00065</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.00216</v>
+        <v>0.00209</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.00218</v>
+        <v>0.00221</v>
       </c>
       <c r="HP3" t="n">
         <v>0.00192</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.00324</v>
+        <v>0.00321</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.0015</v>
+        <v>0.00155</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.0014</v>
+        <v>0.00139</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.00102</v>
+        <v>0.00105</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.00067</v>
+        <v>0.00062</v>
       </c>
       <c r="HV3" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.00058</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0.00098</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0.00123</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="IH3" t="n">
         <v>0.00107</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0.00059</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0.00277</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>0.00181</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0.00071</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.00171</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>0.00101</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>0.00073</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0.00034</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0.00111</v>
-      </c>
       <c r="II3" t="n">
-        <v>0.00173</v>
+        <v>0.0017</v>
       </c>
       <c r="IJ3" t="n">
         <v>0.00055</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00116</v>
+        <v>0.00117</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.00211</v>
+        <v>0.0021</v>
       </c>
       <c r="IM3" t="n">
         <v>0.0009700000000000001</v>
       </c>
       <c r="IN3" t="n">
+        <v>0.00049</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="IQ3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="IO3" t="n">
-        <v>0.00044</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>0.00069</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0.00052</v>
-      </c>
       <c r="IR3" t="n">
-        <v>0.00084</v>
+        <v>0.00081</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.00036</v>
+        <v>0.00037</v>
       </c>
       <c r="IT3" t="n">
         <v>0.00037</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.00036</v>
+        <v>0.00035</v>
       </c>
       <c r="IV3" t="n">
         <v>0.00035</v>
@@ -3263,718 +3263,718 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02028</v>
+        <v>0.02095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04563</v>
+        <v>0.04434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.94734</v>
+        <v>0.94668</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03756</v>
+        <v>0.03653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03679</v>
+        <v>0.03585</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02446</v>
+        <v>0.02414</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05083</v>
+        <v>0.04726</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01966</v>
+        <v>0.0204</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02717</v>
+        <v>0.0265</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03599</v>
+        <v>0.03515</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02388</v>
+        <v>0.02278</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02045</v>
+        <v>0.02061</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02422</v>
+        <v>0.02246</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02244</v>
+        <v>0.02216</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01401</v>
+        <v>0.01463</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05728</v>
+        <v>0.05505</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03117</v>
+        <v>0.03123</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02236</v>
+        <v>0.02206</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01708</v>
+        <v>0.01632</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02587</v>
+        <v>0.02515</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02501</v>
+        <v>0.02485</v>
       </c>
       <c r="X4" t="n">
+        <v>0.02781</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.02419</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02145</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02312</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.01917</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.02037</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.01861</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.00736</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.01496</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.02006</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.00966</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.01701</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.02081</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.00778</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01489</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01354</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.01243</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.01252</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.02223</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.01525</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.01943</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.01828</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.02499</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.00992</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.009520000000000001</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.01932</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.02308</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.02619</v>
+      </c>
+      <c r="BF4" t="n">
         <v>0.02841</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.02474</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.02084</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.02218</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.02288</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.02054</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.01882</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.00704</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.01887</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.01477</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.02002</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.00992</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.05002</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.02143</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.00762</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.00886</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01381</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.01224</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="BG4" t="n">
+        <v>0.01084</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.00916</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.01111</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.01544</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.01268</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.01606</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.01547</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.008789999999999999</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.01419</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.00522</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.01085</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.01141</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.01148</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.00804</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.03383</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.01363</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.01077</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.01671</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.00958</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.02191</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.01099</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.00801</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.01566</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.00975</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.00608</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.009220000000000001</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.02305</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.00613</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.01232</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.01145</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.00473</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.02761</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.00319</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.00763</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.00233</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.00961</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.009889999999999999</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.008659999999999999</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.01117</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.00187</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.00764</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0.01067</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0.00912</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0.00696</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0.01517</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0.00812</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.00407</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="ED4" t="n">
         <v>0.00682</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0.01241</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.02191</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.01567</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.01974</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.01853</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.02558</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.00979</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.009220000000000001</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.0199</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.02334</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.02661</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.0287</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.01058</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.009379999999999999</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.01116</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.01559</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.01533</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.00856</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.01293</v>
-      </c>
-      <c r="BO4" t="n">
+      <c r="EE4" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0.00647</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.00753</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0.00643</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0.00187</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0.00146</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0.00805</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0.00338</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0.00322</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0.00261</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0.008959999999999999</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0.00283</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0.009480000000000001</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0.00356</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0.00779</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="FO4" t="n">
         <v>0.01551</v>
       </c>
-      <c r="BP4" t="n">
-        <v>0.01551</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.008829999999999999</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.01302</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.008109999999999999</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.01075</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.01153</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0.01166</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0.00812</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0.01828</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0.01896</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0.03597</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0.01401</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0.01128</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0.01714</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0.00992</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0.02312</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0.01111</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.00831</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0.00821</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0.01572</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0.00991</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0.00633</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.009469999999999999</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0.02314</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0.00644</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0.00405</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0.00656</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0.01315</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0.01189</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0.00498</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0.03029</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>0.00609</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0.00328</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>0.00533</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>0.00267</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0.00724</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0.00788</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>0.00685</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="DH4" t="n">
+      <c r="FP4" t="n">
         <v>0.00429</v>
       </c>
-      <c r="DI4" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0.00237</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>0.009690000000000001</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0.01006</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0.009090000000000001</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0.03296</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0.01118</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0.00544</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0.00379</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0.00194</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0.00801</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0.01132</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0.05642</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0.00967</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0.01532</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.008019999999999999</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.00411</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0.00403</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0.00717</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0.00363</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0.00617</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0.00306</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0.00238</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0.00318</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0.00667</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0.00399</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0.00758</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0.00458</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0.02188</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0.00329</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0.00494</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0.00636</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0.00435</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0.00665</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0.00193</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0.00156</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0.00834</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0.00352</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0.00328</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0.00481</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0.00277</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0.00457</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0.009050000000000001</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0.00109</v>
-      </c>
-      <c r="FI4" t="n">
+      <c r="FQ4" t="n">
+        <v>0.00743</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0.009429999999999999</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0.00842</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0.00205</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0.00793</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0.00584</v>
+      </c>
+      <c r="FX4" t="n">
         <v>0.00298</v>
       </c>
-      <c r="FJ4" t="n">
-        <v>0.00431</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0.00997</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0.00369</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0.00822</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0.00101</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0.01602</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0.00472</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0.00746</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0.00942</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0.00246</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0.00944</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0.00208</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0.00839</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0.00315</v>
-      </c>
       <c r="FY4" t="n">
-        <v>0.00336</v>
+        <v>0.00313</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.00441</v>
+        <v>0.00426</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.00458</v>
+        <v>0.00425</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.00379</v>
+        <v>0.00358</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.00741</v>
+        <v>0.00711</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.00274</v>
+        <v>0.00252</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01159</v>
+        <v>0.0107</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.00132</v>
+        <v>0.00121</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="GI4" t="n">
-        <v>0.00503</v>
+        <v>0.00468</v>
       </c>
       <c r="GJ4" t="n">
         <v>0.00319</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.00523</v>
+        <v>0.00524</v>
       </c>
       <c r="GL4" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0.00317</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0.00373</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0.00348</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0.00805</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0.00448</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0.00245</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0.00294</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0.00113</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0.00976</v>
+      </c>
+      <c r="HB4" t="n">
         <v>0.00115</v>
       </c>
-      <c r="GM4" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0.00318</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0.00413</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0.00108</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0.00102</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0.008920000000000001</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>0.00458</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0.00258</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0.00183</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0.00332</v>
-      </c>
-      <c r="GY4" t="n">
+      <c r="HC4" t="n">
+        <v>0.00367</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0.00096</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0.00411</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="HT4" t="n">
         <v>0.00117</v>
       </c>
-      <c r="GZ4" t="n">
-        <v>0.00072</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0.01035</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0.00122</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0.00386</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0.00594</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0.00222</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0.00098</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0.00138</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0.00233</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0.00286</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0.00066</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0.00305</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>0.00228</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0.00433</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>0.00228</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0.00153</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0.00116</v>
-      </c>
       <c r="HU4" t="n">
-        <v>0.001</v>
+        <v>0.00088</v>
       </c>
       <c r="HV4" t="n">
-        <v>0.0011</v>
+        <v>0.00103</v>
       </c>
       <c r="HW4" t="n">
         <v>0.0007</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.00081</v>
+        <v>0.0008</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.00415</v>
+        <v>0.00373</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.00131</v>
+        <v>0.00121</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.00119</v>
+        <v>0.00122</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.00251</v>
+        <v>0.00243</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.00157</v>
+        <v>0.00151</v>
       </c>
       <c r="ID4" t="n">
         <v>0.0009</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.00126</v>
+        <v>0.00115</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.00074</v>
+        <v>0.0007</v>
       </c>
       <c r="IG4" t="n">
         <v>0.00044</v>
@@ -3983,46 +3983,46 @@
         <v>0.00086</v>
       </c>
       <c r="II4" t="n">
-        <v>0.00329</v>
+        <v>0.00289</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.00116</v>
+        <v>0.00111</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.00255</v>
+        <v>0.00243</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="IO4" t="n">
         <v>0.00047</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.00054</v>
+        <v>0.0005</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="IR4" t="n">
-        <v>0.00081</v>
+        <v>0.00076</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="IT4" t="n">
         <v>0.00044</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="5">
@@ -4033,763 +4033,763 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02106</v>
+        <v>0.02112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03477</v>
+        <v>0.03367</v>
       </c>
       <c r="E5" t="n">
-        <v>0.94924</v>
+        <v>0.94892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0416</v>
+        <v>0.04179</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03354</v>
+        <v>0.03158</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02804</v>
+        <v>0.02742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08878999999999999</v>
+        <v>0.08225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01367</v>
+        <v>0.01401</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03022</v>
+        <v>0.02956</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03405</v>
+        <v>0.03336</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02238</v>
+        <v>0.02123</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01696</v>
+        <v>0.01699</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03277</v>
+        <v>0.03073</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09639</v>
+        <v>0.09182</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01041</v>
+        <v>0.01028</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04901</v>
+        <v>0.0469</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02447</v>
+        <v>0.02366</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02164</v>
+        <v>0.02099</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01855</v>
+        <v>0.01737</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02395</v>
+        <v>0.02348</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02559</v>
+        <v>0.02445</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02231</v>
+        <v>0.02175</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02899</v>
+        <v>0.02787</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01717</v>
+        <v>0.01689</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02418</v>
+        <v>0.02263</v>
       </c>
       <c r="AB5" t="n">
         <v>0.01361</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02217</v>
+        <v>0.02137</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01603</v>
+        <v>0.01517</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01518</v>
+        <v>0.01478</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02778</v>
+        <v>0.02692</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00775</v>
+        <v>0.00769</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.01482</v>
+        <v>0.01425</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01174</v>
+        <v>0.01159</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.01961</v>
+        <v>0.01943</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.01177</v>
+        <v>0.01123</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.01881</v>
+        <v>0.01818</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.03313</v>
+        <v>0.032</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02314</v>
+        <v>0.02249</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00644</v>
+        <v>0.00639</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01151</v>
+        <v>0.01079</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01529</v>
+        <v>0.015</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0186</v>
+        <v>0.01743</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01458</v>
+        <v>0.01435</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.00793</v>
+        <v>0.00791</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.01181</v>
+        <v>0.01148</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.02604</v>
+        <v>0.02589</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02057</v>
+        <v>0.01901</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01917</v>
+        <v>0.01946</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01617</v>
+        <v>0.01592</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.02699</v>
+        <v>0.02582</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.01022</v>
+        <v>0.01006</v>
       </c>
       <c r="BB5" t="n">
         <v>0.01042</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.02124</v>
+        <v>0.02027</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01813</v>
+        <v>0.01767</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.02007</v>
+        <v>0.01849</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02313</v>
+        <v>0.02302</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0086</v>
+        <v>0.00865</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01489</v>
+        <v>0.01449</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008489999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01477</v>
+        <v>0.01438</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01169</v>
+        <v>0.01127</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.01813</v>
+        <v>0.01759</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.00899</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01259</v>
+        <v>0.01224</v>
       </c>
       <c r="BO5" t="n">
         <v>0.01143</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0123</v>
+        <v>0.01254</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.02035</v>
+        <v>0.0196</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.00821</v>
+        <v>0.00804</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.01224</v>
+        <v>0.01192</v>
       </c>
       <c r="BT5" t="n">
+        <v>0.00553</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.01635</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.00654</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.01248</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.01241</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.01205</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.009010000000000001</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.01755</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.01912</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.03601</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.01248</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.01238</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.00842</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.02187</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.01067</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.00978</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.01138</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.02188</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.01058</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.01123</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.02071</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.00621</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.00401</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.01201</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.01316</v>
+      </c>
+      <c r="CX5" t="n">
         <v>0.00557</v>
       </c>
-      <c r="BU5" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.00679</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.01266</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0.01271</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0.01266</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0.009209999999999999</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0.01771</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0.01961</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0.0387</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0.01304</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0.01015</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0.009090000000000001</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0.01439</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0.01284</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0.00881</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0.02321</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0.01104</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0.01265</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0.02249</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0.01099</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0.00705</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0.01217</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.02109</v>
-      </c>
-      <c r="CS5" t="n">
+      <c r="CY5" t="n">
+        <v>0.01838</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.00452</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0.00293</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.009310000000000001</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.00228</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.00933</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.0189</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.00777</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.01095</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.02609</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.01194</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.00695</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.00279</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="DT5" t="n">
         <v>0.00653</v>
       </c>
-      <c r="CT5" t="n">
-        <v>0.00412</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0.008869999999999999</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0.01249</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0.01321</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0.00582</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0.01935</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0.00467</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0.00298</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0.008070000000000001</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0.00971</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>0.00625</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0.00235</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>0.00944</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>0.00276</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0.01897</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0.00325</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0.00791</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0.01144</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0.02655</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0.01214</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0.00729</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0.00294</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0.00277</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0.00682</v>
-      </c>
       <c r="DU5" t="n">
-        <v>0.01697</v>
+        <v>0.01595</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.07424</v>
+        <v>0.06693</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.00843</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.00696</v>
+        <v>0.00678</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.00589</v>
+        <v>0.00567</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01479</v>
+        <v>0.01454</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.00795</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.00373</v>
+        <v>0.0037</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0053</v>
+        <v>0.00524</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.00818</v>
+        <v>0.00762</v>
       </c>
       <c r="EE5" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.00231</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.00347</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0.009719999999999999</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0.007849999999999999</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0.00707</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0.00771</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.01918</v>
+      </c>
+      <c r="ER5" t="n">
         <v>0.00385</v>
       </c>
-      <c r="EF5" t="n">
-        <v>0.01121</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>0.00476</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0.00412</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>0.00244</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>0.00349</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>0.01018</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>0.00814</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0.00856</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0.00457</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0.02001</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0.00407</v>
-      </c>
       <c r="ES5" t="n">
-        <v>0.00488</v>
+        <v>0.0048</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.00202</v>
+        <v>0.00189</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.00788</v>
+        <v>0.00768</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.00548</v>
+        <v>0.00492</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.00521</v>
+        <v>0.00499</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.00233</v>
+        <v>0.0022</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00122</v>
+        <v>0.00119</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.00834</v>
+        <v>0.00783</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.00467</v>
+        <v>0.00448</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.00353</v>
+        <v>0.00338</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.00639</v>
+        <v>0.00609</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.00205</v>
+        <v>0.00199</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.00301</v>
+        <v>0.00295</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.00665</v>
+        <v>0.00654</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.00813</v>
+        <v>0.00797</v>
       </c>
       <c r="FH5" t="n">
         <v>0.00148</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.00282</v>
+        <v>0.00269</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.00578</v>
+        <v>0.00541</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01139</v>
+        <v>0.01082</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.00296</v>
+        <v>0.00288</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.00669</v>
+        <v>0.00633</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.00134</v>
+        <v>0.00126</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.01604</v>
+        <v>0.01587</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00738</v>
+        <v>0.00662</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.00791</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01207</v>
+        <v>0.01191</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.00261</v>
+        <v>0.00258</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01022</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="FU5" t="n">
         <v>0.00227</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.009220000000000001</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.00577</v>
+        <v>0.00561</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.00233</v>
+        <v>0.00227</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.00358</v>
+        <v>0.00338</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.00672</v>
+        <v>0.00647</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.00682</v>
+        <v>0.00633</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.00488</v>
+        <v>0.00434</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.00075</v>
+        <v>0.00073</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00628</v>
+        <v>0.00581</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.00245</v>
+        <v>0.00232</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01594</v>
+        <v>0.01518</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.00189</v>
+        <v>0.00185</v>
       </c>
       <c r="GH5" t="n">
-        <v>0.00092</v>
+        <v>0.0009</v>
       </c>
       <c r="GI5" t="n">
-        <v>0.00769</v>
+        <v>0.00681</v>
       </c>
       <c r="GJ5" t="n">
-        <v>0.006</v>
+        <v>0.00584</v>
       </c>
       <c r="GK5" t="n">
-        <v>0.00487</v>
+        <v>0.00479</v>
       </c>
       <c r="GL5" t="n">
-        <v>0.00197</v>
+        <v>0.00192</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.00662</v>
+        <v>0.00619</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.00307</v>
+        <v>0.00301</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.00491</v>
+        <v>0.00471</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.00122</v>
+        <v>0.00112</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.00114</v>
+        <v>0.00112</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.00467</v>
+        <v>0.00458</v>
       </c>
       <c r="GS5" t="n">
-        <v>0.01042</v>
+        <v>0.01004</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.006</v>
+        <v>0.00572</v>
       </c>
       <c r="GU5" t="n">
-        <v>0.00321</v>
+        <v>0.00314</v>
       </c>
       <c r="GV5" t="n">
-        <v>0.00141</v>
+        <v>0.00134</v>
       </c>
       <c r="GW5" t="n">
-        <v>0.00276</v>
+        <v>0.00271</v>
       </c>
       <c r="GX5" t="n">
-        <v>0.00351</v>
+        <v>0.00324</v>
       </c>
       <c r="GY5" t="n">
-        <v>0.0023</v>
+        <v>0.00215</v>
       </c>
       <c r="GZ5" t="n">
         <v>0.00074</v>
       </c>
       <c r="HA5" t="n">
-        <v>0.00753</v>
+        <v>0.00731</v>
       </c>
       <c r="HB5" t="n">
         <v>0.00222</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.0061</v>
+        <v>0.00598</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.00377</v>
+        <v>0.00371</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.00181</v>
+        <v>0.00171</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.0076</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.00114</v>
+        <v>0.00108</v>
       </c>
       <c r="HH5" t="n">
-        <v>0.0031</v>
+        <v>0.00317</v>
       </c>
       <c r="HI5" t="n">
-        <v>0.00132</v>
+        <v>0.0013</v>
       </c>
       <c r="HJ5" t="n">
-        <v>0.00246</v>
+        <v>0.00238</v>
       </c>
       <c r="HK5" t="n">
-        <v>0.00246</v>
+        <v>0.00247</v>
       </c>
       <c r="HL5" t="n">
-        <v>0.00597</v>
+        <v>0.00589</v>
       </c>
       <c r="HM5" t="n">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="HN5" t="n">
-        <v>0.00326</v>
+        <v>0.00315</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.00266</v>
+        <v>0.00255</v>
       </c>
       <c r="HP5" t="n">
-        <v>0.00269</v>
+        <v>0.0026</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0.00454</v>
+        <v>0.00431</v>
       </c>
       <c r="HR5" t="n">
-        <v>0.00305</v>
+        <v>0.00301</v>
       </c>
       <c r="HS5" t="n">
-        <v>0.00197</v>
+        <v>0.00191</v>
       </c>
       <c r="HT5" t="n">
         <v>0.00148</v>
       </c>
       <c r="HU5" t="n">
-        <v>0.00269</v>
+        <v>0.0026</v>
       </c>
       <c r="HV5" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00091</v>
       </c>
       <c r="HW5" t="n">
-        <v>0.00106</v>
+        <v>0.00104</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.00099</v>
+        <v>0.00092</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.00629</v>
+        <v>0.00601</v>
       </c>
       <c r="HZ5" t="n">
-        <v>0.00179</v>
+        <v>0.00171</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.00145</v>
+        <v>0.00149</v>
       </c>
       <c r="IB5" t="n">
-        <v>0.0034</v>
+        <v>0.00333</v>
       </c>
       <c r="IC5" t="n">
-        <v>0.00334</v>
+        <v>0.00327</v>
       </c>
       <c r="ID5" t="n">
-        <v>0.00096</v>
+        <v>0.00092</v>
       </c>
       <c r="IE5" t="n">
-        <v>0.00113</v>
+        <v>0.0011</v>
       </c>
       <c r="IF5" t="n">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
       <c r="IG5" t="n">
-        <v>0.00047</v>
+        <v>0.00048</v>
       </c>
       <c r="IH5" t="n">
-        <v>0.00044</v>
+        <v>0.00042</v>
       </c>
       <c r="II5" t="n">
-        <v>0.00476</v>
+        <v>0.00408</v>
       </c>
       <c r="IJ5" t="n">
-        <v>0.00052</v>
+        <v>0.00051</v>
       </c>
       <c r="IK5" t="n">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="IL5" t="n">
-        <v>0.00249</v>
+        <v>0.00236</v>
       </c>
       <c r="IM5" t="n">
-        <v>0.00181</v>
+        <v>0.00171</v>
       </c>
       <c r="IN5" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00062</v>
       </c>
       <c r="IO5" t="n">
-        <v>0.00061</v>
+        <v>0.00059</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.00049</v>
+        <v>0.0005</v>
       </c>
       <c r="IQ5" t="n">
-        <v>0.00059</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="IR5" t="n">
-        <v>0.00059</v>
+        <v>0.00053</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
       <c r="IT5" t="n">
         <v>0.00039</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="IV5" t="n">
         <v>0.0007</v>
@@ -4803,748 +4803,748 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01996</v>
+        <v>0.02038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03227</v>
+        <v>0.03321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.94785</v>
+        <v>0.9472699999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02729</v>
+        <v>0.02788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03237</v>
+        <v>0.03455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01388</v>
+        <v>0.01461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02212</v>
+        <v>0.02326</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01279</v>
+        <v>0.01316</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02231</v>
+        <v>0.02337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02085</v>
+        <v>0.02137</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02549</v>
+        <v>0.02436</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01553</v>
+        <v>0.01628</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01405</v>
+        <v>0.01474</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01625</v>
+        <v>0.01676</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00893</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01709</v>
+        <v>0.01769</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02171</v>
+        <v>0.02243</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01926</v>
+        <v>0.02029</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01926</v>
+        <v>0.01878</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0139</v>
+        <v>0.01422</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01378</v>
+        <v>0.01444</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0262</v>
+        <v>0.02601</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.011</v>
+        <v>0.01157</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01368</v>
+        <v>0.01445</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00872</v>
+        <v>0.00923</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01081</v>
+        <v>0.0114</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00929</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="AD6" t="n">
+        <v>0.01372</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01596</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01214</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01228</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01704</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01849</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01622</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.00536</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.00817</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01514</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01518</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01007</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.00963</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="AV6" t="n">
         <v>0.01283</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AW6" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.01064</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.01366</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.00547</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.00676</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.00889</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.01458</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.01149</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.00629</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.009730000000000001</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.00546</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.01416</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.00706</v>
+      </c>
+      <c r="BL6" t="n">
         <v>0.01128</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0.01521</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.01164</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.01156</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.01441</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.01542</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.0172</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.01809</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.01606</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.00489</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.008330000000000001</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.01475</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.01593</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.009990000000000001</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.00944</v>
-      </c>
-      <c r="AU6" t="n">
+      <c r="BM6" t="n">
+        <v>0.008580000000000001</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.00847</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.01298</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.00583</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.00581</v>
+      </c>
+      <c r="BW6" t="n">
         <v>0.008970000000000001</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.01252</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.01763</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.01011</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.01279</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.01187</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BX6" t="n">
+        <v>0.01158</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.01065</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.00772</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.01138</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.00647</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.00767</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.01058</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.00979</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.01142</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.00808</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.00778</v>
+      </c>
+      <c r="CS6" t="n">
         <v>0.00525</v>
       </c>
-      <c r="BB6" t="n">
-        <v>0.00648</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.00891</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.01391</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0.01099</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.02148</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.00622</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0.009180000000000001</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.00516</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.01468</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0.0111</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0.008460000000000001</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0.008160000000000001</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0.00666</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.01286</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0.00539</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0.01494</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0.00403</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0.00562</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0.00545</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0.00885</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0.01094</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0.00894</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0.01043</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0.00757</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0.00738</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0.01069</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0.00605</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0.00898</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0.00618</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0.00737</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0.01047</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0.01025</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0.01087</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0.00736</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0.00592</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0.00704</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0.00781</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0.00635</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0.00632</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0.00821</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0.00522</v>
-      </c>
       <c r="CT6" t="n">
-        <v>0.00556</v>
+        <v>0.00578</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.00647</v>
+        <v>0.00653</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.00734</v>
+        <v>0.00775</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.00744</v>
+        <v>0.00767</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.00512</v>
+        <v>0.0053</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01056</v>
+        <v>0.01098</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.00532</v>
+        <v>0.0053</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0044</v>
+        <v>0.00456</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.00286</v>
+        <v>0.00302</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.002</v>
+        <v>0.00208</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.00801</v>
+        <v>0.007990000000000001</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.00565</v>
+        <v>0.00536</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.00362</v>
+        <v>0.0038</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.00138</v>
+        <v>0.00132</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.00354</v>
+        <v>0.00339</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.00446</v>
+        <v>0.00448</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.00345</v>
+        <v>0.00331</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.00529</v>
+        <v>0.0053</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.00218</v>
+        <v>0.0022</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.00454</v>
+        <v>0.00477</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.00454</v>
+        <v>0.00461</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.00614</v>
+        <v>0.00651</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.00398</v>
+        <v>0.00419</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.00264</v>
+        <v>0.00279</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.00356</v>
+        <v>0.00339</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00096</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.00506</v>
+        <v>0.00531</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.00851</v>
+        <v>0.00877</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.00625</v>
+        <v>0.00644</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.00718</v>
+        <v>0.0073</v>
       </c>
       <c r="DX6" t="n">
         <v>0.00431</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.00357</v>
+        <v>0.00378</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.00464</v>
+        <v>0.00484</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.00261</v>
+        <v>0.00276</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.00324</v>
+        <v>0.00344</v>
       </c>
       <c r="EC6" t="n">
         <v>0.00204</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.00288</v>
+        <v>0.00307</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.00579</v>
+        <v>0.0056</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.00379</v>
+        <v>0.00402</v>
       </c>
       <c r="EG6" t="n">
+        <v>0.00348</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0.00299</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0.00507</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0.00357</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.00342</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0.00342</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.00182</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0.00266</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0.00094</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0.00269</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0.00122</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="FA6" t="n">
         <v>0.00368</v>
       </c>
-      <c r="EH6" t="n">
-        <v>0.00199</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>0.00197</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>0.00236</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>0.00478</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>0.00286</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>0.00332</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0.00649</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0.00314</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0.00193</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0.00246</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0.00255</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>0.00359</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0.00378</v>
-      </c>
       <c r="FB6" t="n">
-        <v>0.0026</v>
+        <v>0.00251</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.00405</v>
+        <v>0.00404</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.00149</v>
+        <v>0.00152</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.00186</v>
+        <v>0.00192</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.00194</v>
+        <v>0.00203</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.00413</v>
+        <v>0.00444</v>
       </c>
       <c r="FH6" t="n">
         <v>0.00106</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.00422</v>
+        <v>0.00435</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.00265</v>
+        <v>0.00255</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0041</v>
+        <v>0.00408</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.00199</v>
+        <v>0.00217</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.00226</v>
+        <v>0.00239</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.00158</v>
+        <v>0.00162</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.00257</v>
+        <v>0.00269</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.00185</v>
+        <v>0.0018</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.00374</v>
+        <v>0.00394</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.00409</v>
+        <v>0.00413</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.00229</v>
+        <v>0.00242</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.00382</v>
+        <v>0.00414</v>
       </c>
       <c r="FU6" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.00274</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0.00346</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0.00317</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0.00186</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>0.00181</v>
+      </c>
+      <c r="GL6" t="n">
         <v>0.00074</v>
       </c>
-      <c r="FV6" t="n">
-        <v>0.00481</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0.00199</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0.00226</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0.00375</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0.00268</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0.00333</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0.00352</v>
-      </c>
-      <c r="GC6" t="n">
+      <c r="GM6" t="n">
+        <v>0.00326</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="GP6" t="n">
         <v>0.00074</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0.00288</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0.00309</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0.00341</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0.00073</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0.00087</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0.00177</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0.00173</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0.00076</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0.00306</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0.00253</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0.00076</v>
       </c>
       <c r="GQ6" t="n">
         <v>0.00086</v>
       </c>
       <c r="GR6" t="n">
-        <v>0.00056</v>
+        <v>0.00059</v>
       </c>
       <c r="GS6" t="n">
-        <v>0.00296</v>
+        <v>0.0031</v>
       </c>
       <c r="GT6" t="n">
-        <v>0.00138</v>
+        <v>0.00145</v>
       </c>
       <c r="GU6" t="n">
-        <v>0.00167</v>
+        <v>0.00169</v>
       </c>
       <c r="GV6" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>0.00404</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0.00295</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>0.00251</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="HG6" t="n">
         <v>0.001</v>
       </c>
-      <c r="GW6" t="n">
-        <v>0.00251</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0.00412</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0.00112</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0.0006400000000000001</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0.00269</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>0.00126</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>0.00189</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>0.00244</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>0.00178</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>0.00103</v>
-      </c>
       <c r="HH6" t="n">
-        <v>0.00123</v>
+        <v>0.00127</v>
       </c>
       <c r="HI6" t="n">
-        <v>0.00065</v>
+        <v>0.00069</v>
       </c>
       <c r="HJ6" t="n">
-        <v>0.00069</v>
+        <v>0.00068</v>
       </c>
       <c r="HK6" t="n">
-        <v>0.00133</v>
+        <v>0.00132</v>
       </c>
       <c r="HL6" t="n">
-        <v>0.00281</v>
+        <v>0.00268</v>
       </c>
       <c r="HM6" t="n">
-        <v>0.00055</v>
+        <v>0.00054</v>
       </c>
       <c r="HN6" t="n">
-        <v>0.00221</v>
+        <v>0.00212</v>
       </c>
       <c r="HO6" t="n">
-        <v>0.00262</v>
+        <v>0.00248</v>
       </c>
       <c r="HP6" t="n">
-        <v>0.00185</v>
+        <v>0.00192</v>
       </c>
       <c r="HQ6" t="n">
-        <v>0.00226</v>
+        <v>0.00238</v>
       </c>
       <c r="HR6" t="n">
-        <v>0.00071</v>
+        <v>0.00078</v>
       </c>
       <c r="HS6" t="n">
-        <v>0.00088</v>
+        <v>0.0009</v>
       </c>
       <c r="HT6" t="n">
-        <v>0.0009</v>
+        <v>0.00091</v>
       </c>
       <c r="HU6" t="n">
-        <v>0.00115</v>
+        <v>0.00117</v>
       </c>
       <c r="HV6" t="n">
-        <v>0.0009</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="HW6" t="n">
         <v>0.00057</v>
       </c>
       <c r="HX6" t="n">
-        <v>0.00068</v>
+        <v>0.00067</v>
       </c>
       <c r="HY6" t="n">
+        <v>0.00158</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="IE6" t="n">
         <v>0.00148</v>
       </c>
-      <c r="HZ6" t="n">
-        <v>0.00289</v>
-      </c>
-      <c r="IA6" t="n">
-        <v>0.00056</v>
-      </c>
-      <c r="IB6" t="n">
-        <v>0.00123</v>
-      </c>
-      <c r="IC6" t="n">
-        <v>0.00112</v>
-      </c>
-      <c r="ID6" t="n">
-        <v>0.00059</v>
-      </c>
-      <c r="IE6" t="n">
-        <v>0.00156</v>
-      </c>
       <c r="IF6" t="n">
-        <v>0.0014</v>
+        <v>0.00136</v>
       </c>
       <c r="IG6" t="n">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="IH6" t="n">
-        <v>0.00039</v>
+        <v>0.00038</v>
       </c>
       <c r="II6" t="n">
-        <v>0.00119</v>
+        <v>0.00115</v>
       </c>
       <c r="IJ6" t="n">
         <v>0.00051</v>
       </c>
       <c r="IK6" t="n">
-        <v>0.00099</v>
+        <v>0.00106</v>
       </c>
       <c r="IL6" t="n">
         <v>0.00106</v>
       </c>
       <c r="IM6" t="n">
-        <v>0.00059</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="IN6" t="n">
+        <v>0.00051</v>
+      </c>
+      <c r="IO6" t="n">
         <v>0.00052</v>
       </c>
-      <c r="IO6" t="n">
-        <v>0.00054</v>
-      </c>
       <c r="IP6" t="n">
-        <v>0.00046</v>
+        <v>0.00049</v>
       </c>
       <c r="IQ6" t="n">
         <v>0.00046</v>
@@ -5553,13 +5553,13 @@
         <v>0.00045</v>
       </c>
       <c r="IS6" t="n">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="IT6" t="n">
         <v>0.00035</v>
       </c>
       <c r="IU6" t="n">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="IV6" t="n">
         <v>0.00036</v>
@@ -5573,745 +5573,745 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02034</v>
+        <v>0.02143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0775</v>
+        <v>0.07885</v>
       </c>
       <c r="E7" t="n">
-        <v>0.95044</v>
+        <v>0.95025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03436</v>
+        <v>0.03504</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05427</v>
+        <v>0.05897</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0175</v>
+        <v>0.01814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04082</v>
+        <v>0.04233</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01383</v>
+        <v>0.01444</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02742</v>
+        <v>0.0287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03674</v>
+        <v>0.03719</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02704</v>
+        <v>0.02782</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02325</v>
+        <v>0.02391</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02087</v>
+        <v>0.0217</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02531</v>
+        <v>0.02601</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01453</v>
+        <v>0.01511</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02763</v>
+        <v>0.02889</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03949</v>
+        <v>0.04098</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02432</v>
+        <v>0.02545</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02339</v>
+        <v>0.0251</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02845</v>
+        <v>0.0288</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02719</v>
+        <v>0.02799</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03488</v>
+        <v>0.03493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02025</v>
+        <v>0.02119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03196</v>
+        <v>0.03394</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01551</v>
+        <v>0.0162</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01805</v>
+        <v>0.01891</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02279</v>
+        <v>0.02338</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02138</v>
+        <v>0.0228</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02293</v>
+        <v>0.02376</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02905</v>
+        <v>0.03016</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00587</v>
+        <v>0.00619</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.02229</v>
+        <v>0.0234</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01454</v>
+        <v>0.01528</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03346</v>
+        <v>0.03509</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.02076</v>
+        <v>0.02114</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02332</v>
+        <v>0.02355</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.03255</v>
+        <v>0.03316</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02707</v>
+        <v>0.02709</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01011</v>
+        <v>0.01118</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.00993</v>
+        <v>0.01019</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01836</v>
+        <v>0.01922</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01523</v>
+        <v>0.01534</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01775</v>
+        <v>0.01883</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01612</v>
+        <v>0.01633</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.01441</v>
+        <v>0.01485</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.02005</v>
+        <v>0.02078</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.02277</v>
+        <v>0.0236</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01371</v>
+        <v>0.01444</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.02736</v>
+        <v>0.02921</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.02717</v>
+        <v>0.02864</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01083</v>
+        <v>0.01128</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.00844</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01399</v>
+        <v>0.01408</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0208</v>
+        <v>0.02149</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01622</v>
+        <v>0.01718</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.04053</v>
+        <v>0.04046</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.01003</v>
+        <v>0.01085</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0212</v>
+        <v>0.02251</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.01023</v>
+        <v>0.01101</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01954</v>
+        <v>0.02006</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.01586</v>
+        <v>0.01639</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.01908</v>
+        <v>0.01975</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.01109</v>
+        <v>0.0112</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.01427</v>
+        <v>0.01491</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.02144</v>
+        <v>0.02247</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0151</v>
+        <v>0.01592</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.01539</v>
+        <v>0.01571</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.00885</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.02604</v>
+        <v>0.0263</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.00486</v>
+        <v>0.00517</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.01069</v>
+        <v>0.01099</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.009639999999999999</v>
+        <v>0.01037</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01482</v>
+        <v>0.01527</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.01204</v>
+        <v>0.01263</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01556</v>
+        <v>0.01618</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.01436</v>
+        <v>0.01451</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01563</v>
+        <v>0.01679</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.01353</v>
+        <v>0.01408</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01749</v>
+        <v>0.01839</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.01463</v>
+        <v>0.01559</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.01425</v>
+        <v>0.01446</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.009939999999999999</v>
+        <v>0.01004</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.01344</v>
+        <v>0.01398</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01736</v>
+        <v>0.01779</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01659</v>
+        <v>0.01691</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.01655</v>
+        <v>0.01753</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01335</v>
+        <v>0.01358</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01051</v>
+        <v>0.01084</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.00962</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.01297</v>
+        <v>0.01356</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.01476</v>
+        <v>0.01506</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.01062</v>
+        <v>0.01063</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.01027</v>
+        <v>0.01064</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.01485</v>
+        <v>0.01575</v>
       </c>
       <c r="CS7" t="n">
         <v>0.00733</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.00755</v>
+        <v>0.00783</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0107</v>
+        <v>0.01072</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0139</v>
+        <v>0.01441</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.01212</v>
+        <v>0.01257</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.00738</v>
+        <v>0.00756</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.01894</v>
+        <v>0.01996</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01122</v>
+        <v>0.01144</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.00641</v>
+        <v>0.0067</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0066</v>
+        <v>0.00692</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.00316</v>
+        <v>0.00323</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0112</v>
+        <v>0.01117</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.00716</v>
+        <v>0.00771</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.00651</v>
+        <v>0.00678</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.00134</v>
+        <v>0.00137</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0046</v>
+        <v>0.00469</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.00585</v>
+        <v>0.0061</v>
       </c>
       <c r="DJ7" t="n">
+        <v>0.00351</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.01053</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.00856</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.01375</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.01063</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.01089</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.01221</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.01253</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.01443</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.008460000000000001</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.00763</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.01026</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.00674</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.00571</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0.00551</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.00616</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.00646</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.00636</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.00681</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.00732</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.01316</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.00433</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0.00601</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0.01414</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.00347</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.00417</v>
+      </c>
+      <c r="FC7" t="n">
         <v>0.00334</v>
       </c>
-      <c r="DK7" t="n">
-        <v>0.00848</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>0.00519</v>
-      </c>
-      <c r="DM7" t="n">
-        <v>0.01011</v>
-      </c>
-      <c r="DN7" t="n">
-        <v>0.00834</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>0.01305</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>0.01012</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>0.00462</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>0.00216</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>0.01181</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>0.01193</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>0.01405</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.00814</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>0.00718</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0.00967</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.00589</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>0.00259</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>0.00547</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>0.00537</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>0.00725</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>0.00345</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>0.00181</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>0.00363</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>0.00597</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>0.00618</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>0.00357</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>0.00597</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0.00639</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0.01204</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0.00361</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>0.00616</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>0.00172</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>0.00399</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>0.00174</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>0.00566</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0.00237</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0.00215</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>0.01319</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0.00338</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>0.00411</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0.00325</v>
-      </c>
       <c r="FD7" t="n">
-        <v>0.00264</v>
+        <v>0.00263</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.00309</v>
+        <v>0.00317</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.00399</v>
+        <v>0.00416</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.01022</v>
+        <v>0.01077</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.00104</v>
+        <v>0.00106</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.00539</v>
+        <v>0.00557</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.00341</v>
+        <v>0.00343</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.00675</v>
+        <v>0.00703</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.00544</v>
+        <v>0.00574</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0048</v>
+        <v>0.00488</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.00151</v>
+        <v>0.00159</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.00482</v>
+        <v>0.00501</v>
       </c>
       <c r="FP7" t="n">
         <v>0.00294</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.00781</v>
+        <v>0.008</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.00567</v>
+        <v>0.00597</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.00605</v>
+        <v>0.00619</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.00615</v>
+        <v>0.00644</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.00177</v>
+        <v>0.0018</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.00842</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.00442</v>
+        <v>0.00473</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.00393</v>
+        <v>0.00405</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00343</v>
+        <v>0.00365</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0034</v>
+        <v>0.00349</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.00524</v>
+        <v>0.00529</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.00511</v>
+        <v>0.00531</v>
       </c>
       <c r="GC7" t="n">
         <v>0.00075</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.00446</v>
+        <v>0.00466</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.00263</v>
+        <v>0.0027</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.00313</v>
+        <v>0.00315</v>
       </c>
       <c r="GG7" t="n">
         <v>0.00166</v>
       </c>
       <c r="GH7" t="n">
-        <v>0.0009</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="GI7" t="n">
-        <v>0.00397</v>
+        <v>0.00411</v>
       </c>
       <c r="GJ7" t="n">
-        <v>0.00364</v>
+        <v>0.00377</v>
       </c>
       <c r="GK7" t="n">
-        <v>0.00416</v>
+        <v>0.00436</v>
       </c>
       <c r="GL7" t="n">
         <v>0.00076</v>
       </c>
       <c r="GM7" t="n">
-        <v>0.0038</v>
+        <v>0.00393</v>
       </c>
       <c r="GN7" t="n">
-        <v>0.00417</v>
+        <v>0.00425</v>
       </c>
       <c r="GO7" t="n">
-        <v>0.00329</v>
+        <v>0.00343</v>
       </c>
       <c r="GP7" t="n">
-        <v>0.00124</v>
+        <v>0.00123</v>
       </c>
       <c r="GQ7" t="n">
-        <v>0.00141</v>
+        <v>0.00143</v>
       </c>
       <c r="GR7" t="n">
-        <v>0.00122</v>
+        <v>0.00126</v>
       </c>
       <c r="GS7" t="n">
-        <v>0.00409</v>
+        <v>0.00415</v>
       </c>
       <c r="GT7" t="n">
-        <v>0.00255</v>
+        <v>0.00267</v>
       </c>
       <c r="GU7" t="n">
-        <v>0.00313</v>
+        <v>0.00315</v>
       </c>
       <c r="GV7" t="n">
         <v>0.00147</v>
       </c>
       <c r="GW7" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0.00327</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0.00516</v>
+      </c>
+      <c r="HB7" t="n">
         <v>0.00134</v>
       </c>
-      <c r="GX7" t="n">
-        <v>0.00316</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0.00088</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0.00491</v>
-      </c>
-      <c r="HB7" t="n">
-        <v>0.00126</v>
-      </c>
       <c r="HC7" t="n">
-        <v>0.00257</v>
+        <v>0.00269</v>
       </c>
       <c r="HD7" t="n">
-        <v>0.00442</v>
+        <v>0.00456</v>
       </c>
       <c r="HE7" t="n">
-        <v>0.00131</v>
+        <v>0.00133</v>
       </c>
       <c r="HF7" t="n">
-        <v>0.00292</v>
+        <v>0.00289</v>
       </c>
       <c r="HG7" t="n">
-        <v>0.00082</v>
+        <v>0.00084</v>
       </c>
       <c r="HH7" t="n">
-        <v>0.00245</v>
+        <v>0.00248</v>
       </c>
       <c r="HI7" t="n">
-        <v>0.00113</v>
+        <v>0.00117</v>
       </c>
       <c r="HJ7" t="n">
-        <v>0.001</v>
+        <v>0.00104</v>
       </c>
       <c r="HK7" t="n">
-        <v>0.00167</v>
+        <v>0.00181</v>
       </c>
       <c r="HL7" t="n">
-        <v>0.00155</v>
+        <v>0.00158</v>
       </c>
       <c r="HM7" t="n">
+        <v>0.00053</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>0.00174</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0.00186</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>0.00121</v>
+      </c>
+      <c r="HW7" t="n">
         <v>0.00054</v>
       </c>
-      <c r="HN7" t="n">
-        <v>0.00165</v>
-      </c>
-      <c r="HO7" t="n">
-        <v>0.00207</v>
-      </c>
-      <c r="HP7" t="n">
-        <v>0.00192</v>
-      </c>
-      <c r="HQ7" t="n">
-        <v>0.00364</v>
-      </c>
-      <c r="HR7" t="n">
-        <v>0.00136</v>
-      </c>
-      <c r="HS7" t="n">
-        <v>0.00168</v>
-      </c>
-      <c r="HT7" t="n">
-        <v>0.00173</v>
-      </c>
-      <c r="HU7" t="n">
-        <v>0.00071</v>
-      </c>
-      <c r="HV7" t="n">
-        <v>0.00119</v>
-      </c>
-      <c r="HW7" t="n">
-        <v>0.00055</v>
-      </c>
       <c r="HX7" t="n">
-        <v>0.00084</v>
+        <v>0.00086</v>
       </c>
       <c r="HY7" t="n">
-        <v>0.00232</v>
+        <v>0.00236</v>
       </c>
       <c r="HZ7" t="n">
-        <v>0.00364</v>
+        <v>0.00365</v>
       </c>
       <c r="IA7" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00103</v>
       </c>
       <c r="IB7" t="n">
-        <v>0.00218</v>
+        <v>0.00222</v>
       </c>
       <c r="IC7" t="n">
-        <v>0.00145</v>
+        <v>0.00153</v>
       </c>
       <c r="ID7" t="n">
         <v>0.00098</v>
       </c>
       <c r="IE7" t="n">
-        <v>0.00108</v>
+        <v>0.00109</v>
       </c>
       <c r="IF7" t="n">
-        <v>0.00126</v>
+        <v>0.00127</v>
       </c>
       <c r="IG7" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00066</v>
       </c>
       <c r="IH7" t="n">
-        <v>0.0004</v>
+        <v>0.00038</v>
       </c>
       <c r="II7" t="n">
-        <v>0.00134</v>
+        <v>0.00142</v>
       </c>
       <c r="IJ7" t="n">
         <v>0.00046</v>
       </c>
       <c r="IK7" t="n">
-        <v>0.00167</v>
+        <v>0.00174</v>
       </c>
       <c r="IL7" t="n">
-        <v>0.00248</v>
+        <v>0.00258</v>
       </c>
       <c r="IM7" t="n">
-        <v>0.00066</v>
+        <v>0.00068</v>
       </c>
       <c r="IN7" t="n">
         <v>0.00052</v>
       </c>
       <c r="IO7" t="n">
-        <v>0.00052</v>
+        <v>0.00051</v>
       </c>
       <c r="IP7" t="n">
         <v>0.00078</v>
@@ -6320,10 +6320,10 @@
         <v>0.00044</v>
       </c>
       <c r="IR7" t="n">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="IS7" t="n">
-        <v>0.00047</v>
+        <v>0.00048</v>
       </c>
       <c r="IT7" t="n">
         <v>0.00034</v>
@@ -6332,7 +6332,7 @@
         <v>0.0003</v>
       </c>
       <c r="IV7" t="n">
-        <v>0.00035</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="8">
@@ -6343,766 +6343,766 @@
         <v>15.74671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01609</v>
+        <v>0.01671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05278</v>
+        <v>0.055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.94823</v>
+        <v>0.94867</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03156</v>
+        <v>0.03217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03328</v>
+        <v>0.03594</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01261</v>
+        <v>0.01325</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02797</v>
+        <v>0.02929</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01048</v>
+        <v>0.01082</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02471</v>
+        <v>0.02524</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02708</v>
+        <v>0.02729</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02678</v>
+        <v>0.02734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01635</v>
+        <v>0.01691</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01544</v>
+        <v>0.01625</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02311</v>
+        <v>0.02388</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01037</v>
+        <v>0.01087</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0205</v>
+        <v>0.0218</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03028</v>
+        <v>0.03222</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02334</v>
+        <v>0.02703</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02237</v>
+        <v>0.02535</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02038</v>
+        <v>0.02082</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01955</v>
+        <v>0.02047</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03004</v>
+        <v>0.03054</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0166</v>
+        <v>0.01772</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02603</v>
+        <v>0.02815</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01113</v>
+        <v>0.01167</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01354</v>
+        <v>0.01421</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01699</v>
+        <v>0.01746</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01618</v>
+        <v>0.0174</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01682</v>
+        <v>0.01756</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02308</v>
+        <v>0.02428</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00394</v>
+        <v>0.00418</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.01822</v>
+        <v>0.01935</v>
       </c>
       <c r="AI8" t="n">
+        <v>0.01064</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.02834</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01815</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.02362</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.009849999999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01358</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.01352</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.01286</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.01248</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01826</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.02187</v>
+      </c>
+      <c r="AX8" t="n">
         <v>0.01</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0.02618</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.01735</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.01987</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.02699</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.02327</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.00725</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.00957</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.01445</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.01296</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.01241</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.01299</v>
-      </c>
-      <c r="AU8" t="n">
+      <c r="AY8" t="n">
+        <v>0.02114</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.02215</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.009639999999999999</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.01417</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.02013</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.03924</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.00764</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.01848</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.00886</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.01814</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.01157</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.01808</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="BN8" t="n">
         <v>0.01191</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0.01736</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.02081</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.009480000000000001</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.01903</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0.02051</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.009090000000000001</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.00692</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0.01419</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.01906</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.01409</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0.04053</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.00708</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0.01632</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.00804</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0.01766</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0.01098</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0.01695</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0.01082</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0.01138</v>
-      </c>
       <c r="BO8" t="n">
-        <v>0.01706</v>
+        <v>0.01821</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01141</v>
+        <v>0.01225</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01284</v>
+        <v>0.01315</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0063</v>
+        <v>0.00664</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.02487</v>
+        <v>0.02542</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.00311</v>
+        <v>0.00334</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.00876</v>
+        <v>0.00919</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01167</v>
+        <v>0.01197</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01153</v>
+        <v>0.01272</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0142</v>
+        <v>0.01494</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.012</v>
+        <v>0.01203</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0108</v>
+        <v>0.01174</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.01143</v>
+        <v>0.01199</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01364</v>
+        <v>0.01497</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.01178</v>
+        <v>0.01283</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0103</v>
+        <v>0.01045</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.00881</v>
+        <v>0.00891</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.01082</v>
+        <v>0.01124</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0161</v>
+        <v>0.0175</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.01369</v>
+        <v>0.0148</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.01408</v>
+        <v>0.01524</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.01121</v>
+        <v>0.01169</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.00889</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01078</v>
+        <v>0.0115</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01192</v>
+        <v>0.01221</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.00974</v>
+        <v>0.01008</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.00825</v>
+        <v>0.008970000000000001</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01124</v>
+        <v>0.01214</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.00728</v>
+        <v>0.0073</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.00565</v>
+        <v>0.00599</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.008970000000000001</v>
+        <v>0.00899</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.00997</v>
+        <v>0.01045</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.01077</v>
+        <v>0.01129</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0058</v>
+        <v>0.00596</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.01296</v>
+        <v>0.01373</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.00788</v>
+        <v>0.00818</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.00465</v>
+        <v>0.0048</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.00424</v>
+        <v>0.00442</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.00238</v>
+        <v>0.00248</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.00932</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.00579</v>
+        <v>0.00645</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0049</v>
+        <v>0.00513</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.00171</v>
+        <v>0.00161</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.00381</v>
+        <v>0.00395</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.00489</v>
+        <v>0.0053</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.00219</v>
+        <v>0.00221</v>
       </c>
       <c r="DK8" t="n">
         <v>0.008109999999999999</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.00414</v>
+        <v>0.00422</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00735</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.00654</v>
+        <v>0.00678</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.00983</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0074</v>
+        <v>0.00827</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.00335</v>
+        <v>0.00367</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.00447</v>
+        <v>0.0046</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00158</v>
+        <v>0.00163</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.00714</v>
+        <v>0.00772</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.01036</v>
+        <v>0.01077</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.00974</v>
+        <v>0.01024</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01164</v>
+        <v>0.01229</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.00665</v>
+        <v>0.00701</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.00536</v>
+        <v>0.0057</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.00728</v>
+        <v>0.00771</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.00504</v>
+        <v>0.00556</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.00435</v>
+        <v>0.00472</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.00215</v>
+        <v>0.00219</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.00415</v>
+        <v>0.00455</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.00415</v>
+        <v>0.00439</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.00548</v>
+        <v>0.00586</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0026</v>
+        <v>0.00282</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.00182</v>
+        <v>0.00192</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.00166</v>
+        <v>0.00144</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.00319</v>
+        <v>0.00329</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.00498</v>
+        <v>0.00533</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.00427</v>
+        <v>0.00424</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.00384</v>
+        <v>0.0041</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.00441</v>
+        <v>0.00487</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.00502</v>
+        <v>0.00549</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.00808</v>
+        <v>0.00929</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.00246</v>
+        <v>0.0028</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.00438</v>
+        <v>0.00483</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.00144</v>
+        <v>0.0015</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.00267</v>
+        <v>0.00297</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.00114</v>
+        <v>0.00121</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.00444</v>
+        <v>0.00477</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.00184</v>
+        <v>0.0019</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.00128</v>
+        <v>0.00131</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.009259999999999999</v>
+        <v>0.01109</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.00294</v>
+        <v>0.00285</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.00345</v>
+        <v>0.00367</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.00274</v>
+        <v>0.00275</v>
       </c>
       <c r="FD8" t="n">
         <v>0.00175</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0021</v>
+        <v>0.00224</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.00311</v>
+        <v>0.00327</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.008920000000000001</v>
+        <v>0.01024</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0013</v>
+        <v>0.00134</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.00401</v>
+        <v>0.00429</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.00291</v>
+        <v>0.00296</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.00464</v>
+        <v>0.00519</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.00376</v>
+        <v>0.00413</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0032</v>
+        <v>0.00339</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.00307</v>
+        <v>0.00336</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.00196</v>
+        <v>0.00203</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.00711</v>
+        <v>0.00754</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.00455</v>
+        <v>0.005</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.00443</v>
+        <v>0.00477</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.00384</v>
+        <v>0.00419</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00722</v>
+        <v>0.00781</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.00281</v>
+        <v>0.00306</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.00251</v>
+        <v>0.00265</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.00259</v>
+        <v>0.00279</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.00249</v>
+        <v>0.00273</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.00422</v>
+        <v>0.00447</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.00411</v>
+        <v>0.0047</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00073</v>
+        <v>0.00071</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.00349</v>
+        <v>0.0037</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.00372</v>
+        <v>0.00375</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0024</v>
+        <v>0.00248</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.00076</v>
+        <v>0.00075</v>
       </c>
       <c r="GH8" t="n">
         <v>0.00091</v>
       </c>
       <c r="GI8" t="n">
-        <v>0.00323</v>
+        <v>0.00356</v>
       </c>
       <c r="GJ8" t="n">
-        <v>0.00205</v>
+        <v>0.00215</v>
       </c>
       <c r="GK8" t="n">
-        <v>0.00341</v>
+        <v>0.00378</v>
       </c>
       <c r="GL8" t="n">
-        <v>0.00074</v>
+        <v>0.00066</v>
       </c>
       <c r="GM8" t="n">
-        <v>0.00297</v>
+        <v>0.00331</v>
       </c>
       <c r="GN8" t="n">
-        <v>0.00287</v>
+        <v>0.00304</v>
       </c>
       <c r="GO8" t="n">
-        <v>0.00244</v>
+        <v>0.00272</v>
       </c>
       <c r="GP8" t="n">
-        <v>0.00091</v>
+        <v>0.00087</v>
       </c>
       <c r="GQ8" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00099</v>
       </c>
       <c r="GR8" t="n">
-        <v>0.00086</v>
+        <v>0.00092</v>
       </c>
       <c r="GS8" t="n">
-        <v>0.00339</v>
+        <v>0.0037</v>
       </c>
       <c r="GT8" t="n">
-        <v>0.00155</v>
+        <v>0.00164</v>
       </c>
       <c r="GU8" t="n">
-        <v>0.00204</v>
+        <v>0.00209</v>
       </c>
       <c r="GV8" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0.00169</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>0.00069</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>0.00353</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>0.00122</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>0.00203</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>0.00123</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>0.00192</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>0.00158</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>0.00286</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="HT8" t="n">
         <v>0.00119</v>
       </c>
-      <c r="GW8" t="n">
-        <v>0.00153</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0.00285</v>
-      </c>
-      <c r="HB8" t="n">
-        <v>0.00109</v>
-      </c>
-      <c r="HC8" t="n">
-        <v>0.00235</v>
-      </c>
-      <c r="HD8" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="HE8" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="HF8" t="n">
-        <v>0.00243</v>
-      </c>
-      <c r="HG8" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="HH8" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="HI8" t="n">
-        <v>0.00071</v>
-      </c>
-      <c r="HJ8" t="n">
-        <v>0.00066</v>
-      </c>
-      <c r="HK8" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="HL8" t="n">
-        <v>0.00172</v>
-      </c>
-      <c r="HM8" t="n">
-        <v>0.00063</v>
-      </c>
-      <c r="HN8" t="n">
-        <v>0.00205</v>
-      </c>
-      <c r="HO8" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="HP8" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="HQ8" t="n">
-        <v>0.00263</v>
-      </c>
-      <c r="HR8" t="n">
-        <v>0.0009300000000000001</v>
-      </c>
-      <c r="HS8" t="n">
-        <v>0.00116</v>
-      </c>
-      <c r="HT8" t="n">
-        <v>0.00107</v>
-      </c>
       <c r="HU8" t="n">
-        <v>0.00076</v>
+        <v>0.00075</v>
       </c>
       <c r="HV8" t="n">
-        <v>0.00071</v>
+        <v>0.00075</v>
       </c>
       <c r="HW8" t="n">
         <v>0.00061</v>
       </c>
       <c r="HX8" t="n">
-        <v>0.00117</v>
+        <v>0.00112</v>
       </c>
       <c r="HY8" t="n">
-        <v>0.00138</v>
+        <v>0.0015</v>
       </c>
       <c r="HZ8" t="n">
-        <v>0.00247</v>
+        <v>0.00253</v>
       </c>
       <c r="IA8" t="n">
-        <v>0.00074</v>
+        <v>0.00072</v>
       </c>
       <c r="IB8" t="n">
-        <v>0.00166</v>
+        <v>0.00181</v>
       </c>
       <c r="IC8" t="n">
-        <v>0.00131</v>
+        <v>0.00142</v>
       </c>
       <c r="ID8" t="n">
-        <v>0.00061</v>
+        <v>0.00063</v>
       </c>
       <c r="IE8" t="n">
-        <v>0.00233</v>
+        <v>0.00206</v>
       </c>
       <c r="IF8" t="n">
-        <v>0.00123</v>
+        <v>0.0013</v>
       </c>
       <c r="IG8" t="n">
         <v>0.00044</v>
       </c>
       <c r="IH8" t="n">
-        <v>0.00055</v>
+        <v>0.00053</v>
       </c>
       <c r="II8" t="n">
-        <v>0.00078</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="IJ8" t="n">
         <v>0.00056</v>
       </c>
       <c r="IK8" t="n">
-        <v>0.00094</v>
+        <v>0.00106</v>
       </c>
       <c r="IL8" t="n">
-        <v>0.00165</v>
+        <v>0.002</v>
       </c>
       <c r="IM8" t="n">
-        <v>0.00054</v>
+        <v>0.00051</v>
       </c>
       <c r="IN8" t="n">
         <v>0.00057</v>
       </c>
       <c r="IO8" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="IP8" t="n">
         <v>0.00051</v>
       </c>
-      <c r="IP8" t="n">
-        <v>0.00048</v>
-      </c>
       <c r="IQ8" t="n">
-        <v>0.00056</v>
+        <v>0.00057</v>
       </c>
       <c r="IR8" t="n">
-        <v>0.00068</v>
+        <v>0.00066</v>
       </c>
       <c r="IS8" t="n">
         <v>0.00039</v>
       </c>
       <c r="IT8" t="n">
-        <v>0.00048</v>
+        <v>0.00042</v>
       </c>
       <c r="IU8" t="n">
         <v>0.00036</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.00037</v>
+        <v>0.00038</v>
       </c>
     </row>
   </sheetData>

--- a/example/LusMeg00027.xlsx
+++ b/example/LusMeg00027.xlsx
@@ -1723,616 +1723,616 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01739</v>
+        <v>0.01677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03464</v>
+        <v>0.03377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9486599999999999</v>
+        <v>0.94876</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03028</v>
+        <v>0.02955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03584</v>
+        <v>0.03467</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01565</v>
+        <v>0.01505</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0278</v>
+        <v>0.02689</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01176</v>
+        <v>0.01134</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02357</v>
+        <v>0.0228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02047</v>
+        <v>0.02009</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02394</v>
+        <v>0.02307</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01905</v>
+        <v>0.01859</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01404</v>
+        <v>0.01374</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01723</v>
+        <v>0.01667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00961</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01468</v>
+        <v>0.01415</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0225</v>
+        <v>0.02197</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01657</v>
+        <v>0.01604</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01047</v>
+        <v>0.01071</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01578</v>
+        <v>0.01564</v>
       </c>
       <c r="W2" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.03008</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.01279</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.01588</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01161</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.01536</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.01381</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.01298</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01516</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01589</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.01449</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.009639999999999999</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.02254</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.01658</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.02701</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.01879</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00509</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.00718</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.01246</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.01079</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.01267</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.01056</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.01624</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.01357</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.01155</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01724</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02077</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.00655</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00677</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.01003</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.01576</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00881</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.02732</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00818</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.01219</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.01426</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.01461</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.00801</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.009520000000000001</v>
+      </c>
+      <c r="BO2" t="n">
         <v>0.01528</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.03059</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.01321</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.01629</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.01202</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.01575</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.01402</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.01345</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.01579</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.01641</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.01504</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.01001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.02336</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.01278</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.01685</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.02625</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.01912</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00531</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.00733</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.01311</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.01087</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.01015</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.01106</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.01664</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.01389</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.01212</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.01809</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.02153</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.00668</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.00713</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.01029</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.01639</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.009140000000000001</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.02826</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.00855</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.01269</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.01467</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.00885</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.01519</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.00827</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.009860000000000001</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.01591</v>
-      </c>
       <c r="BP2" t="n">
-        <v>0.01058</v>
+        <v>0.01019</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01313</v>
+        <v>0.01284</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00688</v>
+        <v>0.00658</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.02441</v>
+        <v>0.02393</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00371</v>
+        <v>0.00355</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.00686</v>
+        <v>0.00656</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00844</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0118</v>
+        <v>0.01156</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01082</v>
+        <v>0.01041</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01297</v>
+        <v>0.01257</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.009950000000000001</v>
+        <v>0.00978</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01368</v>
+        <v>0.01319</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.009950000000000001</v>
+        <v>0.00959</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01232</v>
+        <v>0.01178</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0106</v>
+        <v>0.01018</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.01041</v>
+        <v>0.01018</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00611</v>
+        <v>0.00603</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.008789999999999999</v>
+        <v>0.008460000000000001</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01417</v>
+        <v>0.01384</v>
       </c>
       <c r="CI2" t="n">
         <v>0.00795</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.01189</v>
+        <v>0.0115</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00617</v>
+        <v>0.0061</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0077</v>
+        <v>0.00751</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.00777</v>
+        <v>0.00763</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0091</v>
+        <v>0.00872</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00868</v>
+        <v>0.00852</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00727</v>
+        <v>0.00715</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00611</v>
+        <v>0.00588</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00838</v>
+        <v>0.00808</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00616</v>
+        <v>0.00604</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0066</v>
+        <v>0.00646</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01166</v>
+        <v>0.01109</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00834</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00539</v>
+        <v>0.00535</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01144</v>
+        <v>0.01085</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00584</v>
+        <v>0.00577</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00472</v>
+        <v>0.00459</v>
       </c>
       <c r="DB2" t="n">
+        <v>0.00461</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.00923</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.00497</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.00507</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.00429</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.00265</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.00548</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.008370000000000001</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.00674</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.00788</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.00374</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.00367</v>
+      </c>
+      <c r="DZ2" t="n">
         <v>0.00482</v>
       </c>
-      <c r="DC2" t="n">
-        <v>0.00168</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.00374</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.00327</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.00431</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.00149</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.00688</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.00306</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.00731</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.00528</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.00445</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.00276</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.00308</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.00144</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.00557</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.008580000000000001</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.00701</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.008030000000000001</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.00384</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.00382</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.00507</v>
-      </c>
       <c r="EA2" t="n">
-        <v>0.00333</v>
+        <v>0.00324</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.00329</v>
+        <v>0.00315</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00199</v>
+        <v>0.00194</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00269</v>
+        <v>0.00259</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.00276</v>
+        <v>0.0027</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00498</v>
+        <v>0.00483</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00265</v>
+        <v>0.00259</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00155</v>
+        <v>0.00151</v>
       </c>
       <c r="EI2" t="n">
         <v>0.00151</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.002</v>
+        <v>0.00197</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00396</v>
+        <v>0.00411</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00306</v>
+        <v>0.00294</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00271</v>
+        <v>0.00282</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00291</v>
+        <v>0.0028</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00294</v>
+        <v>0.00284</v>
       </c>
       <c r="EP2" t="n">
+        <v>0.00339</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.00214</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.00084</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.00356</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.00084</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.00537</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.00251</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.00348</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="FK2" t="n">
         <v>0.00347</v>
       </c>
-      <c r="EQ2" t="n">
-        <v>0.00629</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.00322</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.00131</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.00085</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.00131</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.00085</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.00559</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.00244</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.00229</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.00186</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.00145</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.00228</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.00367</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.00363</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.00226</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.00357</v>
-      </c>
       <c r="FL2" t="n">
-        <v>0.00244</v>
+        <v>0.00237</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00304</v>
+        <v>0.00298</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00091</v>
+        <v>0.00095</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00261</v>
+        <v>0.00256</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00127</v>
+        <v>0.00129</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.00472</v>
+        <v>0.00464</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00299</v>
+        <v>0.00284</v>
       </c>
       <c r="FS2" t="n">
         <v>0.0022</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00454</v>
+        <v>0.00442</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00102</v>
+        <v>0.00099</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.00441</v>
+        <v>0.00426</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.00207</v>
+        <v>0.00199</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0018</v>
+        <v>0.00181</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00215</v>
+        <v>0.00203</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0034</v>
+        <v>0.00336</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00225</v>
+        <v>0.0022</v>
       </c>
       <c r="GC2" t="n">
         <v>0.00081</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.00306</v>
+        <v>0.00295</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.00183</v>
+        <v>0.00189</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00281</v>
+        <v>0.0028</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.00078</v>
+        <v>0.00081</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.00177</v>
+        <v>0.00172</v>
       </c>
       <c r="GJ2" t="n">
         <v>0.00183</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0018</v>
+        <v>0.00171</v>
       </c>
       <c r="GL2" t="n">
         <v>0.00063</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.00252</v>
+        <v>0.00246</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00181</v>
+        <v>0.00187</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.00198</v>
+        <v>0.00195</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00103</v>
+        <v>0.00104</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.00086</v>
+        <v>0.00087</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.00186</v>
+        <v>0.00182</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.0015</v>
+        <v>0.00145</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="GV2" t="n">
         <v>0.00078</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.00148</v>
+        <v>0.0015</v>
       </c>
       <c r="GY2" t="n">
         <v>0.00095</v>
@@ -2341,136 +2341,136 @@
         <v>0.00062</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.00287</v>
+        <v>0.00275</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.00088</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.00214</v>
+        <v>0.00207</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.00227</v>
+        <v>0.00219</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.00104</v>
+        <v>0.00106</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.00185</v>
+        <v>0.00183</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.00211</v>
+        <v>0.00205</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.00084</v>
+        <v>0.00086</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.00105</v>
+        <v>0.00102</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.00175</v>
+        <v>0.00177</v>
       </c>
       <c r="HM2" t="n">
         <v>0.00055</v>
       </c>
       <c r="HN2" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="HO2" t="n">
         <v>0.00152</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.00158</v>
       </c>
       <c r="HP2" t="n">
         <v>0.00124</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.00204</v>
+        <v>0.00197</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.00066</v>
+        <v>0.00063</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.00099</v>
+        <v>0.00101</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.00114</v>
+        <v>0.00116</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.0007</v>
+        <v>0.00071</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00088</v>
       </c>
       <c r="HW2" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.00086</v>
+        <v>0.00087</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.00114</v>
+        <v>0.00109</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.00204</v>
+        <v>0.00202</v>
       </c>
       <c r="IA2" t="n">
         <v>0.00052</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.00078</v>
+        <v>0.00076</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.00108</v>
+        <v>0.00104</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.0011</v>
+        <v>0.00112</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.00083</v>
+        <v>0.00084</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.00033</v>
+        <v>0.00034</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.00063</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="II2" t="n">
-        <v>0.00061</v>
+        <v>0.00062</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.00044</v>
+        <v>0.00045</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.00083</v>
+        <v>0.0008</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.001</v>
+        <v>0.00098</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.00054</v>
+        <v>0.00052</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="IO2" t="n">
         <v>0.0004</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.0004</v>
+        <v>0.00041</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
       <c r="IS2" t="n">
         <v>0.00033</v>
@@ -2493,763 +2493,763 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02046</v>
+        <v>0.01998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04495</v>
+        <v>0.04444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.94119</v>
+        <v>0.94157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03761</v>
+        <v>0.03685</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0454</v>
+        <v>0.04443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02464</v>
+        <v>0.02357</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04267</v>
+        <v>0.04144</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0171</v>
+        <v>0.01657</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02555</v>
+        <v>0.02507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03313</v>
+        <v>0.03255</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02589</v>
+        <v>0.02558</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02314</v>
+        <v>0.02279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02173</v>
+        <v>0.02159</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02395</v>
+        <v>0.02353</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01336</v>
+        <v>0.01287</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03881</v>
+        <v>0.03961</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03908</v>
+        <v>0.03792</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02528</v>
+        <v>0.02517</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01614</v>
+        <v>0.01621</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02396</v>
+        <v>0.02391</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02651</v>
+        <v>0.02598</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03405</v>
+        <v>0.034</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02546</v>
+        <v>0.0251</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02804</v>
+        <v>0.02738</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0241</v>
+        <v>0.02339</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01984</v>
+        <v>0.01923</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02094</v>
+        <v>0.02079</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01708</v>
+        <v>0.01702</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0227</v>
+        <v>0.02236</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02166</v>
+        <v>0.02174</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00766</v>
+        <v>0.00726</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02137</v>
+        <v>0.02107</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01432</v>
+        <v>0.01391</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02568</v>
+        <v>0.02493</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01115</v>
+        <v>0.01102</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0191</v>
+        <v>0.01877</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.04832</v>
+        <v>0.04935</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0277</v>
+        <v>0.02771</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.00743</v>
+        <v>0.00733</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00966</v>
+        <v>0.00992</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01952</v>
+        <v>0.01892</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01302</v>
+        <v>0.01281</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.01352</v>
+        <v>0.01327</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.00881</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.01465</v>
+        <v>0.01419</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02054</v>
+        <v>0.0203</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.01748</v>
+        <v>0.01731</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02267</v>
+        <v>0.02171</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02282</v>
+        <v>0.02191</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.03012</v>
+        <v>0.02899</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.009140000000000001</v>
+        <v>0.00908</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01037</v>
+        <v>0.00987</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.02027</v>
+        <v>0.02007</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02421</v>
+        <v>0.0232</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0166</v>
+        <v>0.01641</v>
       </c>
       <c r="BF3" t="n">
         <v>0.02478</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.009140000000000001</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02331</v>
+        <v>0.02305</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.01224</v>
+        <v>0.01189</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01344</v>
+        <v>0.01331</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01381</v>
+        <v>0.01355</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.01957</v>
+        <v>0.01936</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.00848</v>
+        <v>0.008370000000000001</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.01595</v>
+        <v>0.01588</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.01604</v>
+        <v>0.01559</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01497</v>
+        <v>0.01455</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0162</v>
+        <v>0.01616</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01047</v>
+        <v>0.01016</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01791</v>
+        <v>0.01767</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.00664</v>
+        <v>0.00641</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0107</v>
+        <v>0.01019</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.00891</v>
+        <v>0.00852</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01306</v>
+        <v>0.01289</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0161</v>
+        <v>0.01598</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01413</v>
+        <v>0.01402</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01033</v>
+        <v>0.01024</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01773</v>
+        <v>0.01713</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.01675</v>
+        <v>0.01665</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.032</v>
+        <v>0.03074</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.01478</v>
+        <v>0.01437</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.01146</v>
+        <v>0.01139</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00777</v>
+        <v>0.00763</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01805</v>
+        <v>0.01771</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01371</v>
+        <v>0.01354</v>
       </c>
       <c r="CI3" t="n">
         <v>0.008630000000000001</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02276</v>
+        <v>0.0223</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.00925</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.008</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.01121</v>
+        <v>0.01109</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01284</v>
+        <v>0.01258</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01042</v>
+        <v>0.01031</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.00753</v>
+        <v>0.0077</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.01028</v>
+        <v>0.01019</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01928</v>
+        <v>0.01864</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.00718</v>
+        <v>0.0071</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.00447</v>
+        <v>0.00446</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.00704</v>
+        <v>0.00703</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.01494</v>
+        <v>0.01458</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.01133</v>
+        <v>0.01114</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.00595</v>
+        <v>0.00605</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03034</v>
+        <v>0.03009</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00683</v>
+        <v>0.00691</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0046</v>
+        <v>0.00459</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.00601</v>
+        <v>0.00579</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.00198</v>
+        <v>0.00206</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.00783</v>
+        <v>0.00766</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.00697</v>
+        <v>0.00705</v>
       </c>
       <c r="DG3" t="n">
         <v>0.00134</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.00414</v>
+        <v>0.00424</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.00435</v>
+        <v>0.00436</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.00204</v>
+        <v>0.00201</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.00933</v>
+        <v>0.00941</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.00326</v>
+        <v>0.00324</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0106</v>
+        <v>0.01031</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.00859</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.02171</v>
+        <v>0.02105</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.007979999999999999</v>
+        <v>0.00778</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.00501</v>
+        <v>0.00485</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.00447</v>
+        <v>0.0044</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.00241</v>
+        <v>0.00235</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.00641</v>
+        <v>0.00637</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.01185</v>
+        <v>0.01171</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.04612</v>
+        <v>0.04494</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.00903</v>
+        <v>0.009129999999999999</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.00464</v>
+        <v>0.00457</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.00742</v>
+        <v>0.0072</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01311</v>
+        <v>0.01283</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.00777</v>
+        <v>0.00764</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.00472</v>
+        <v>0.00463</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.00235</v>
+        <v>0.0022</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.00497</v>
+        <v>0.00499</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.00328</v>
+        <v>0.00317</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.00701</v>
+        <v>0.00706</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.00376</v>
+        <v>0.0037</v>
       </c>
       <c r="EH3" t="n">
         <v>0.00253</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.00128</v>
+        <v>0.00134</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.00227</v>
+        <v>0.00225</v>
       </c>
       <c r="EK3" t="n">
+        <v>0.00661</v>
+      </c>
+      <c r="EL3" t="n">
         <v>0.00669</v>
       </c>
-      <c r="EL3" t="n">
-        <v>0.00691</v>
-      </c>
       <c r="EM3" t="n">
-        <v>0.00319</v>
+        <v>0.00314</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0074</v>
+        <v>0.00736</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.00618</v>
+        <v>0.00597</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00469</v>
+        <v>0.00458</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01355</v>
+        <v>0.01364</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00339</v>
+        <v>0.00337</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.00489</v>
+        <v>0.00486</v>
       </c>
       <c r="ET3" t="n">
         <v>0.00163</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.00449</v>
+        <v>0.00442</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.00363</v>
+        <v>0.00367</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0073</v>
+        <v>0.00716</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.00207</v>
+        <v>0.00205</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00153</v>
+        <v>0.00149</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01087</v>
+        <v>0.01051</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.00338</v>
+        <v>0.00337</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.00247</v>
+        <v>0.00244</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.00208</v>
+        <v>0.00216</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.00246</v>
+        <v>0.00248</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.00196</v>
+        <v>0.00201</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.00396</v>
+        <v>0.00391</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.00722</v>
+        <v>0.00702</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.00108</v>
+        <v>0.00112</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.00339</v>
+        <v>0.00334</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0026</v>
+        <v>0.00265</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0086</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.00354</v>
+        <v>0.00345</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.00599</v>
+        <v>0.00587</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.00189</v>
+        <v>0.00185</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0069</v>
+        <v>0.00675</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.00215</v>
+        <v>0.00219</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.00774</v>
+        <v>0.00768</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.00835</v>
+        <v>0.00788</v>
       </c>
       <c r="FS3" t="n">
+        <v>0.00173</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.00781</v>
+      </c>
+      <c r="FU3" t="n">
         <v>0.00172</v>
       </c>
-      <c r="FT3" t="n">
-        <v>0.00783</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0.00176</v>
-      </c>
       <c r="FV3" t="n">
-        <v>0.00671</v>
+        <v>0.00653</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0042</v>
+        <v>0.00397</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.00241</v>
+        <v>0.00239</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.00299</v>
+        <v>0.00289</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00439</v>
+        <v>0.00422</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.00444</v>
+        <v>0.00457</v>
       </c>
       <c r="GB3" t="n">
+        <v>0.00341</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.0009300000000000001</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.00693</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0.008750000000000001</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0.00129</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0.00389</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0.00466</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0.00362</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.00214</v>
+      </c>
+      <c r="GO3" t="n">
         <v>0.0034</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.00088</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0.00716</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0.00214</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0.00126</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0.00109</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0.00479</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0.00394</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0.00486</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0.00377</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0.00217</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0.00338</v>
       </c>
       <c r="GP3" t="n">
         <v>0.0012</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.00098</v>
+        <v>0.00101</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.00238</v>
+        <v>0.00237</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.00632</v>
+        <v>0.00618</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.00431</v>
+        <v>0.00425</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.00224</v>
+        <v>0.00232</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.00101</v>
+        <v>0.00102</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.00127</v>
+        <v>0.00125</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.00185</v>
+        <v>0.00193</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.00102</v>
+        <v>0.00104</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.00077</v>
+        <v>0.00079</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.00627</v>
+        <v>0.00622</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.00094</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.00392</v>
+        <v>0.00383</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.00426</v>
+        <v>0.00413</v>
       </c>
       <c r="HE3" t="n">
         <v>0.00124</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.00456</v>
+        <v>0.00453</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.00086</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.00232</v>
+        <v>0.00225</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0011</v>
+        <v>0.00111</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.00131</v>
+        <v>0.00127</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.00138</v>
+        <v>0.00136</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.00212</v>
+        <v>0.00214</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.00065</v>
+        <v>0.00066</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.00209</v>
+        <v>0.00216</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.00221</v>
+        <v>0.00218</v>
       </c>
       <c r="HP3" t="n">
         <v>0.00192</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.00321</v>
+        <v>0.00324</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.00155</v>
+        <v>0.00149</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.00139</v>
+        <v>0.0014</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.00105</v>
+        <v>0.00102</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.00062</v>
+        <v>0.00067</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.00105</v>
+        <v>0.00107</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.00058</v>
+        <v>0.00059</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.00087</v>
+        <v>0.0009</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.00282</v>
+        <v>0.00277</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0.00178</v>
+        <v>0.00182</v>
       </c>
       <c r="IA3" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="IF3" t="n">
         <v>0.00073</v>
       </c>
-      <c r="IB3" t="n">
-        <v>0.00188</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.00178</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>0.00098</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.00123</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>0.0007</v>
-      </c>
       <c r="IG3" t="n">
-        <v>0.00033</v>
+        <v>0.00034</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.00107</v>
+        <v>0.00111</v>
       </c>
       <c r="II3" t="n">
-        <v>0.0017</v>
+        <v>0.00173</v>
       </c>
       <c r="IJ3" t="n">
         <v>0.00055</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00117</v>
+        <v>0.00116</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.0021</v>
+        <v>0.00211</v>
       </c>
       <c r="IM3" t="n">
         <v>0.0009700000000000001</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.00049</v>
+        <v>0.0005</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.00042</v>
+        <v>0.00044</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.00065</v>
+        <v>0.00069</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0005</v>
+        <v>0.00052</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.00081</v>
+        <v>0.00084</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.00037</v>
+        <v>0.00036</v>
       </c>
       <c r="IT3" t="n">
         <v>0.00037</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.00035</v>
+        <v>0.00036</v>
       </c>
       <c r="IV3" t="n">
         <v>0.00035</v>
@@ -3263,718 +3263,718 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02095</v>
+        <v>0.02029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04434</v>
+        <v>0.04563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.94668</v>
+        <v>0.9473200000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03653</v>
+        <v>0.03754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03585</v>
+        <v>0.03676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02414</v>
+        <v>0.02444</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04726</v>
+        <v>0.0507</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0204</v>
+        <v>0.01967</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0265</v>
+        <v>0.02713</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03515</v>
+        <v>0.03599</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02278</v>
+        <v>0.02385</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02061</v>
+        <v>0.02044</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02246</v>
+        <v>0.02416</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02216</v>
+        <v>0.02243</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01463</v>
+        <v>0.01402</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05505</v>
+        <v>0.05728</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03123</v>
+        <v>0.03119</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02206</v>
+        <v>0.02237</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01632</v>
+        <v>0.01706</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02515</v>
+        <v>0.02586</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02485</v>
+        <v>0.02499</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02781</v>
+        <v>0.0284</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02419</v>
+        <v>0.02473</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0212</v>
+        <v>0.02087</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02145</v>
+        <v>0.02215</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01686</v>
+        <v>0.01629</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02312</v>
+        <v>0.02288</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01917</v>
+        <v>0.01949</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02037</v>
+        <v>0.02054</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01861</v>
+        <v>0.0188</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.00736</v>
+        <v>0.00704</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0188</v>
+        <v>0.01887</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01496</v>
+        <v>0.01476</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02006</v>
+        <v>0.02001</v>
       </c>
       <c r="AK4" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.01737</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.05004</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.02142</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.00761</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.00886</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01381</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.01223</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.00682</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.01241</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.01564</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.01973</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.01852</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.02557</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.00979</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.009220000000000001</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.01988</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.02333</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.02661</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.02867</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.01058</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.01971</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.009390000000000001</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.01115</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.01533</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.00855</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.01292</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.01551</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.01551</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.01387</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.01438</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.01298</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.01074</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.01152</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.008109999999999999</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.01825</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.01894</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.03591</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.01127</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.00719</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.01712</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.01099</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.00992</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.01111</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.00831</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.008189999999999999</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.01571</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.00632</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.009469999999999999</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.02313</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.00655</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.01314</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.01188</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.00497</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.03028</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.00609</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.00328</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.00532</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.00723</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.00787</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.00684</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.00429</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.009690000000000001</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.01005</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.03295</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.01119</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.00543</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.00379</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.00193</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0.01129</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0.05639</v>
+      </c>
+      <c r="DW4" t="n">
         <v>0.00966</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0.01701</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0475</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.02081</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.00778</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.01489</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01354</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.01243</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.00676</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.01252</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.02223</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.01525</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.01943</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.01828</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.02499</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.00992</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.009520000000000001</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.01932</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.02308</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.02619</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.02841</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.01084</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.0194</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.00916</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.01111</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.01544</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.008319999999999999</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.01268</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.01606</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.01547</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.008789999999999999</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.01419</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.00522</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.01233</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.01085</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.01141</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0.01148</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0.00804</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0.0181</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0.03383</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0.01363</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0.01077</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0.00706</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0.01671</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0.00958</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0.02191</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0.01099</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.00801</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0.008030000000000001</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0.01566</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0.00975</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0.00608</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.009220000000000001</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0.02305</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0.00613</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0.00394</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0.01232</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0.01145</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0.00473</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0.02761</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>0.00594</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0.00319</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>0.00264</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0.00706</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0.00763</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>0.00155</v>
-      </c>
-      <c r="DH4" t="n">
+      <c r="DX4" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0.00709</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0.01532</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0.008019999999999999</v>
+      </c>
+      <c r="EB4" t="n">
         <v>0.0041</v>
       </c>
-      <c r="DI4" t="n">
-        <v>0.00476</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0.00233</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>0.00961</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0.00302</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0.009889999999999999</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0.008659999999999999</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0.0321</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0.01117</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0.00364</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0.00187</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0.00764</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0.01067</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0.0531</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0.00912</v>
-      </c>
-      <c r="DX4" t="n">
+      <c r="EC4" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.00718</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.00616</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0.00399</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.00458</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.02184</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0.00636</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0.00665</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0.00193</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0.00834</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0.00352</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0.00328</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0.00278</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0.00457</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0.00906</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0.00298</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0.009939999999999999</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0.00821</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="FP4" t="n">
         <v>0.00472</v>
       </c>
-      <c r="DY4" t="n">
-        <v>0.00696</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0.01517</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.00812</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.00407</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0.00387</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0.00682</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0.00349</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0.00603</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0.00292</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>0.00126</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>0.00647</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>0.00743</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>0.00372</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>0.00753</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0.00439</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0.00314</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0.00126</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0.00643</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0.00402</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0.00187</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0.00146</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0.00805</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0.00338</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0.00322</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0.00431</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0.00197</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0.00261</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0.00444</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0.008959999999999999</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0.00101</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0.00283</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0.00394</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0.009480000000000001</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0.00356</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0.00779</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0.01551</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0.00429</v>
-      </c>
       <c r="FQ4" t="n">
-        <v>0.00743</v>
+        <v>0.00746</v>
       </c>
       <c r="FR4" t="n">
         <v>0.009429999999999999</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.00236</v>
+        <v>0.00246</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.00842</v>
+        <v>0.00941</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.00205</v>
+        <v>0.00208</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.00793</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.00584</v>
+        <v>0.0059</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.00298</v>
+        <v>0.00315</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.00313</v>
+        <v>0.00336</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.00426</v>
+        <v>0.00441</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.00425</v>
+        <v>0.00457</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.00358</v>
+        <v>0.00379</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.00711</v>
+        <v>0.00741</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.00252</v>
+        <v>0.00274</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0107</v>
+        <v>0.01156</v>
       </c>
       <c r="GG4" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>0.00503</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>0.00523</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0.00412</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0.00108</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0.00458</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0.00258</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0.00117</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0.00182</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0.00332</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0.00117</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0.01033</v>
+      </c>
+      <c r="HB4" t="n">
         <v>0.00121</v>
       </c>
-      <c r="GH4" t="n">
-        <v>0.00076</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0.00468</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0.00319</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0.00524</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0.00106</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0.00301</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0.00317</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0.00373</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0.00102</v>
-      </c>
-      <c r="GQ4" t="n">
+      <c r="HC4" t="n">
+        <v>0.00385</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0.00593</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0.00222</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0.00098</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0.00286</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0.00432</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0.00228</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="HU4" t="n">
         <v>0.001</v>
       </c>
-      <c r="GR4" t="n">
-        <v>0.00348</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0.00805</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>0.00448</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0.00245</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0.00111</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0.00177</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0.00294</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0.00113</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0.00074</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0.00976</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0.00115</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0.00367</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0.00438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0.00128</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0.00562</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0.00114</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0.00226</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0.00096</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0.00126</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0.00229</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0.00292</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0.00067</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>0.00276</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>0.00206</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>0.00411</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>0.00226</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>0.00149</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>0.00117</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>0.00088</v>
-      </c>
       <c r="HV4" t="n">
-        <v>0.00103</v>
+        <v>0.0011</v>
       </c>
       <c r="HW4" t="n">
-        <v>0.0007</v>
+        <v>0.00071</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.0008</v>
+        <v>0.00081</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.00373</v>
+        <v>0.00414</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.00121</v>
+        <v>0.00131</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.00122</v>
+        <v>0.00119</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.00243</v>
+        <v>0.00251</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.00151</v>
+        <v>0.00157</v>
       </c>
       <c r="ID4" t="n">
         <v>0.0009</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.00115</v>
+        <v>0.00126</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.0007</v>
+        <v>0.00074</v>
       </c>
       <c r="IG4" t="n">
         <v>0.00044</v>
@@ -3983,46 +3983,46 @@
         <v>0.00086</v>
       </c>
       <c r="II4" t="n">
-        <v>0.00289</v>
+        <v>0.00327</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.00063</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.00111</v>
+        <v>0.00116</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.00243</v>
+        <v>0.00255</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.00056</v>
+        <v>0.00057</v>
       </c>
       <c r="IO4" t="n">
         <v>0.00047</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.0005</v>
+        <v>0.00054</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
       <c r="IR4" t="n">
-        <v>0.00076</v>
+        <v>0.0008</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.00039</v>
+        <v>0.00038</v>
       </c>
       <c r="IT4" t="n">
         <v>0.00044</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.00049</v>
+        <v>0.0005</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.00043</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="5">
@@ -4033,763 +4033,763 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02112</v>
+        <v>0.02105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03367</v>
+        <v>0.03475</v>
       </c>
       <c r="E5" t="n">
-        <v>0.94892</v>
+        <v>0.94929</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04179</v>
+        <v>0.04162</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03158</v>
+        <v>0.03352</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02742</v>
+        <v>0.02799</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08225</v>
+        <v>0.08873</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01401</v>
+        <v>0.01364</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02956</v>
+        <v>0.03018</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03336</v>
+        <v>0.03399</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02123</v>
+        <v>0.02237</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01699</v>
+        <v>0.01693</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03073</v>
+        <v>0.03272</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09182</v>
+        <v>0.09644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01028</v>
+        <v>0.01039</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0469</v>
+        <v>0.04888</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02366</v>
+        <v>0.02444</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02099</v>
+        <v>0.02162</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01737</v>
+        <v>0.01853</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02348</v>
+        <v>0.02392</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02445</v>
+        <v>0.02552</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02175</v>
+        <v>0.02232</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02787</v>
+        <v>0.02896</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01689</v>
+        <v>0.01716</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02263</v>
+        <v>0.02418</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01361</v>
+        <v>0.01359</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02137</v>
+        <v>0.02214</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01517</v>
+        <v>0.016</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01478</v>
+        <v>0.01514</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02692</v>
+        <v>0.02773</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00769</v>
+        <v>0.00774</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.01425</v>
+        <v>0.01481</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01159</v>
+        <v>0.01171</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.01943</v>
+        <v>0.0196</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.01123</v>
+        <v>0.01176</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.01818</v>
+        <v>0.01879</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.032</v>
+        <v>0.0331</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02249</v>
+        <v>0.02314</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00639</v>
+        <v>0.00644</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01079</v>
+        <v>0.01151</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.015</v>
+        <v>0.01527</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.01743</v>
+        <v>0.01861</v>
       </c>
       <c r="AS5" t="n">
+        <v>0.01457</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.00792</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.01179</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.02603</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.01911</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.01614</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.02696</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.01021</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.01038</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.02121</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.02006</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.02311</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.01487</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.00848</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.01477</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.01166</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.01813</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.01258</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.01142</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.01227</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.02031</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.00818</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.01224</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.00556</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.01727</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.00679</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.01268</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.01266</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.01767</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.01957</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.03863</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.01303</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.01014</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="CG5" t="n">
         <v>0.01435</v>
       </c>
-      <c r="AT5" t="n">
-        <v>0.00791</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.01148</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.02589</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.01901</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.01946</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.01592</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0.02582</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.01006</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.01042</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0.02027</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0.01767</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0.01849</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0.02302</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.00865</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.01449</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0.01438</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0.01127</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.01759</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0.008840000000000001</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0.01224</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0.01143</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0.01254</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0.00804</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0.01192</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.00553</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.01635</v>
-      </c>
-      <c r="BV5" t="n">
+      <c r="CH5" t="n">
+        <v>0.01284</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.02318</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.01103</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.01268</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.02246</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.01098</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.01217</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.02103</v>
+      </c>
+      <c r="CS5" t="n">
         <v>0.00654</v>
       </c>
-      <c r="BW5" t="n">
-        <v>0.01248</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0.01241</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0.01205</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0.009010000000000001</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0.01755</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0.01912</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0.03601</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0.01248</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0.00991</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0.008529999999999999</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0.0142</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0.01238</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0.00842</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0.02187</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0.01067</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0.00978</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0.01138</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0.02188</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0.01058</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0.00676</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0.01123</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.02071</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0.00621</v>
-      </c>
       <c r="CT5" t="n">
-        <v>0.00401</v>
+        <v>0.00412</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.008319999999999999</v>
+        <v>0.008869999999999999</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.01201</v>
+        <v>0.01247</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01316</v>
+        <v>0.01319</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.00557</v>
+        <v>0.00581</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01838</v>
+        <v>0.01928</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.00452</v>
+        <v>0.00466</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00293</v>
+        <v>0.00298</v>
       </c>
       <c r="DB5" t="n">
         <v>0.00438</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.00292</v>
+        <v>0.00305</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0078</v>
+        <v>0.008070000000000001</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.009310000000000001</v>
+        <v>0.0097</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.00602</v>
+        <v>0.00624</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.00228</v>
+        <v>0.00234</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.00343</v>
+        <v>0.0036</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.00933</v>
+        <v>0.00944</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.00268</v>
+        <v>0.00275</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0189</v>
+        <v>0.01894</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.00308</v>
+        <v>0.00325</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00777</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.01095</v>
+        <v>0.01144</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.02609</v>
+        <v>0.02646</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.01194</v>
+        <v>0.01213</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.00695</v>
+        <v>0.00729</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.00279</v>
+        <v>0.00294</v>
       </c>
       <c r="DS5" t="n">
         <v>0.00276</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.00653</v>
+        <v>0.00681</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.01595</v>
+        <v>0.01693</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.06693</v>
+        <v>0.07409</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.008410000000000001</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.00678</v>
+        <v>0.00696</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.00567</v>
+        <v>0.00588</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01454</v>
+        <v>0.01474</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.00795</v>
+        <v>0.00805</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0037</v>
+        <v>0.00372</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.00524</v>
+        <v>0.00531</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.00762</v>
+        <v>0.00818</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.00372</v>
+        <v>0.00386</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.01122</v>
+        <v>0.0112</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.00437</v>
+        <v>0.00476</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0039</v>
+        <v>0.00411</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.00231</v>
+        <v>0.00245</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.00347</v>
+        <v>0.00349</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.009719999999999999</v>
+        <v>0.01017</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.00812</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.00424</v>
+        <v>0.0044</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.00707</v>
+        <v>0.00709</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.00771</v>
+        <v>0.00855</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.00431</v>
+        <v>0.00456</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.01918</v>
+        <v>0.01995</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.00385</v>
+        <v>0.00407</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0048</v>
+        <v>0.00487</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.00189</v>
+        <v>0.00202</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.00768</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.00492</v>
+        <v>0.00547</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.00499</v>
+        <v>0.0052</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0022</v>
+        <v>0.00232</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00119</v>
+        <v>0.00122</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.00783</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.00448</v>
+        <v>0.00466</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.00338</v>
+        <v>0.00353</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.00609</v>
+        <v>0.00639</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.00199</v>
+        <v>0.00205</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.00295</v>
+        <v>0.00301</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.00654</v>
+        <v>0.00665</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.00797</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="FH5" t="n">
         <v>0.00148</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.00269</v>
+        <v>0.00281</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.00541</v>
+        <v>0.00578</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01082</v>
+        <v>0.01138</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.00288</v>
+        <v>0.00295</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.00633</v>
+        <v>0.00668</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.00126</v>
+        <v>0.00134</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.01587</v>
+        <v>0.01602</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00662</v>
+        <v>0.00739</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.00791</v>
+        <v>0.00817</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01191</v>
+        <v>0.01205</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.00258</v>
+        <v>0.00261</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.009690000000000001</v>
+        <v>0.01018</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.00227</v>
+        <v>0.00226</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.009039999999999999</v>
+        <v>0.0092</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.00561</v>
+        <v>0.00575</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.00227</v>
+        <v>0.00233</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.00338</v>
+        <v>0.00357</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.00647</v>
+        <v>0.00671</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.00633</v>
+        <v>0.00683</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.00434</v>
+        <v>0.00487</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.00073</v>
+        <v>0.00075</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00581</v>
+        <v>0.00627</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.00232</v>
+        <v>0.00245</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01518</v>
+        <v>0.01589</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.00185</v>
+        <v>0.00189</v>
       </c>
       <c r="GH5" t="n">
-        <v>0.0009</v>
+        <v>0.00092</v>
       </c>
       <c r="GI5" t="n">
-        <v>0.00681</v>
+        <v>0.0077</v>
       </c>
       <c r="GJ5" t="n">
-        <v>0.00584</v>
+        <v>0.006</v>
       </c>
       <c r="GK5" t="n">
-        <v>0.00479</v>
+        <v>0.00486</v>
       </c>
       <c r="GL5" t="n">
-        <v>0.00192</v>
+        <v>0.00197</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.00619</v>
+        <v>0.00661</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.00301</v>
+        <v>0.00306</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.00471</v>
+        <v>0.0049</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.00112</v>
+        <v>0.00121</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.00112</v>
+        <v>0.00114</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.00458</v>
+        <v>0.00466</v>
       </c>
       <c r="GS5" t="n">
-        <v>0.01004</v>
+        <v>0.01038</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.00572</v>
+        <v>0.00597</v>
       </c>
       <c r="GU5" t="n">
-        <v>0.00314</v>
+        <v>0.00321</v>
       </c>
       <c r="GV5" t="n">
-        <v>0.00134</v>
+        <v>0.00141</v>
       </c>
       <c r="GW5" t="n">
-        <v>0.00271</v>
+        <v>0.00275</v>
       </c>
       <c r="GX5" t="n">
-        <v>0.00324</v>
+        <v>0.00351</v>
       </c>
       <c r="GY5" t="n">
-        <v>0.00215</v>
+        <v>0.00229</v>
       </c>
       <c r="GZ5" t="n">
         <v>0.00074</v>
       </c>
       <c r="HA5" t="n">
-        <v>0.00731</v>
+        <v>0.00752</v>
       </c>
       <c r="HB5" t="n">
         <v>0.00222</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.00598</v>
+        <v>0.0061</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.00371</v>
+        <v>0.00376</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.00171</v>
+        <v>0.0018</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.0076</v>
+        <v>0.008019999999999999</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.00108</v>
+        <v>0.00114</v>
       </c>
       <c r="HH5" t="n">
-        <v>0.00317</v>
+        <v>0.00309</v>
       </c>
       <c r="HI5" t="n">
-        <v>0.0013</v>
+        <v>0.00131</v>
       </c>
       <c r="HJ5" t="n">
-        <v>0.00238</v>
+        <v>0.00246</v>
       </c>
       <c r="HK5" t="n">
-        <v>0.00247</v>
+        <v>0.00245</v>
       </c>
       <c r="HL5" t="n">
-        <v>0.00589</v>
+        <v>0.00596</v>
       </c>
       <c r="HM5" t="n">
-        <v>0.00057</v>
+        <v>0.00058</v>
       </c>
       <c r="HN5" t="n">
-        <v>0.00315</v>
+        <v>0.00326</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.00255</v>
+        <v>0.00265</v>
       </c>
       <c r="HP5" t="n">
-        <v>0.0026</v>
+        <v>0.00269</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0.00431</v>
+        <v>0.00453</v>
       </c>
       <c r="HR5" t="n">
-        <v>0.00301</v>
+        <v>0.00304</v>
       </c>
       <c r="HS5" t="n">
-        <v>0.00191</v>
+        <v>0.00197</v>
       </c>
       <c r="HT5" t="n">
         <v>0.00148</v>
       </c>
       <c r="HU5" t="n">
-        <v>0.0026</v>
+        <v>0.00268</v>
       </c>
       <c r="HV5" t="n">
-        <v>0.00091</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="HW5" t="n">
-        <v>0.00104</v>
+        <v>0.00106</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.00092</v>
+        <v>0.00099</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.00601</v>
+        <v>0.00628</v>
       </c>
       <c r="HZ5" t="n">
-        <v>0.00171</v>
+        <v>0.0018</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.00149</v>
+        <v>0.00145</v>
       </c>
       <c r="IB5" t="n">
-        <v>0.00333</v>
+        <v>0.0034</v>
       </c>
       <c r="IC5" t="n">
-        <v>0.00327</v>
+        <v>0.00334</v>
       </c>
       <c r="ID5" t="n">
-        <v>0.00092</v>
+        <v>0.00095</v>
       </c>
       <c r="IE5" t="n">
-        <v>0.0011</v>
+        <v>0.00113</v>
       </c>
       <c r="IF5" t="n">
-        <v>0.00078</v>
+        <v>0.00077</v>
       </c>
       <c r="IG5" t="n">
-        <v>0.00048</v>
+        <v>0.00047</v>
       </c>
       <c r="IH5" t="n">
-        <v>0.00042</v>
+        <v>0.00044</v>
       </c>
       <c r="II5" t="n">
-        <v>0.00408</v>
+        <v>0.00475</v>
       </c>
       <c r="IJ5" t="n">
-        <v>0.00051</v>
+        <v>0.00052</v>
       </c>
       <c r="IK5" t="n">
         <v>0.00134</v>
       </c>
       <c r="IL5" t="n">
-        <v>0.00236</v>
+        <v>0.00248</v>
       </c>
       <c r="IM5" t="n">
-        <v>0.00171</v>
+        <v>0.0018</v>
       </c>
       <c r="IN5" t="n">
-        <v>0.00062</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="IO5" t="n">
-        <v>0.00059</v>
+        <v>0.00061</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="IQ5" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="IR5" t="n">
-        <v>0.00053</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="IT5" t="n">
         <v>0.00039</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.00055</v>
+        <v>0.00054</v>
       </c>
       <c r="IV5" t="n">
         <v>0.0007</v>
@@ -4803,748 +4803,748 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02038</v>
+        <v>0.01997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03321</v>
+        <v>0.03226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9472699999999999</v>
+        <v>0.94783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02788</v>
+        <v>0.02728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03455</v>
+        <v>0.03236</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01461</v>
+        <v>0.01389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02326</v>
+        <v>0.0221</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01316</v>
+        <v>0.0128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02337</v>
+        <v>0.02232</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02137</v>
+        <v>0.02085</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02436</v>
+        <v>0.02538</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01628</v>
+        <v>0.01554</v>
       </c>
       <c r="O6" t="n">
+        <v>0.01406</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00893</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01709</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.02169</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01927</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01919</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01391</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01377</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.02618</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01369</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.00873</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01082</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.00929</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01283</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01129</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01521</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01163</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01155</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01442</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01543</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01606</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>0.01474</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.01676</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.009090000000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.01769</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.02243</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.02029</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.01878</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.01422</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.01444</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.02601</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.01157</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.01445</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.00923</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.01372</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.01596</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.00483</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.01214</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.01228</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.01493</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.01579</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.01704</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.01849</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.01622</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.00536</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.00817</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.01514</v>
-      </c>
       <c r="AR6" t="n">
-        <v>0.01518</v>
+        <v>0.01588</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.01007</v>
+        <v>0.00996</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.00963</v>
+        <v>0.00945</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0092</v>
+        <v>0.00898</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01283</v>
+        <v>0.01252</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0171</v>
+        <v>0.01752</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01064</v>
+        <v>0.01012</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01366</v>
+        <v>0.0128</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01233</v>
+        <v>0.01187</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.00547</v>
+        <v>0.00526</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.00676</v>
+        <v>0.00648</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.00889</v>
+        <v>0.00891</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01458</v>
+        <v>0.01391</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.01149</v>
+        <v>0.01098</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0213</v>
+        <v>0.02147</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.00629</v>
+        <v>0.00621</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.009180000000000001</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.00546</v>
+        <v>0.00517</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.01416</v>
+        <v>0.01463</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.00706</v>
+        <v>0.0068</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01128</v>
+        <v>0.0111</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.008580000000000001</v>
+        <v>0.00847</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.00847</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0092</v>
+        <v>0.00876</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.00699</v>
+        <v>0.00666</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.01298</v>
+        <v>0.01286</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0056</v>
+        <v>0.00539</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.0151</v>
+        <v>0.01494</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.00425</v>
+        <v>0.00403</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.00583</v>
+        <v>0.00563</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.00581</v>
+        <v>0.00545</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.008970000000000001</v>
+        <v>0.00885</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.01158</v>
+        <v>0.01095</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.00908</v>
+        <v>0.00894</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.01065</v>
+        <v>0.01042</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0081</v>
+        <v>0.00758</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.00772</v>
+        <v>0.00739</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01138</v>
+        <v>0.01069</v>
       </c>
       <c r="CD6" t="n">
+        <v>0.00606</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.00737</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.01048</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.01022</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.01086</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.00733</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.00592</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.00702</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.007820000000000001</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.00636</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.00633</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.00818</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.00522</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.00556</v>
+      </c>
+      <c r="CU6" t="n">
         <v>0.00647</v>
       </c>
-      <c r="CE6" t="n">
-        <v>0.00915</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0.00602</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0.00767</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0.01058</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0.00979</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0.01142</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0.00609</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0.00658</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0.00808</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0.00638</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0.00792</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0.00778</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0.00578</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0.00653</v>
-      </c>
       <c r="CV6" t="n">
-        <v>0.00775</v>
+        <v>0.00734</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.00767</v>
+        <v>0.00745</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0053</v>
+        <v>0.00512</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01098</v>
+        <v>0.01056</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0053</v>
+        <v>0.00532</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.00456</v>
+        <v>0.0044</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.00302</v>
+        <v>0.00286</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.00208</v>
+        <v>0.002</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.00801</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.00536</v>
+        <v>0.00562</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0038</v>
+        <v>0.00363</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.00132</v>
+        <v>0.00138</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.00339</v>
+        <v>0.00353</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.00448</v>
+        <v>0.00446</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.00331</v>
+        <v>0.00345</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0053</v>
+        <v>0.00527</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0022</v>
+        <v>0.00218</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.00477</v>
+        <v>0.00454</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.00461</v>
+        <v>0.00454</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.00651</v>
+        <v>0.00614</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.00419</v>
+        <v>0.00399</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.00279</v>
+        <v>0.00264</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.00339</v>
+        <v>0.00354</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.00096</v>
+        <v>0.00094</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.00531</v>
+        <v>0.00507</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.00877</v>
+        <v>0.00852</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.00644</v>
+        <v>0.00625</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.0073</v>
+        <v>0.00719</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.00431</v>
+        <v>0.00428</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.00378</v>
+        <v>0.00357</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.00484</v>
+        <v>0.00464</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.00276</v>
+        <v>0.00262</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.00344</v>
+        <v>0.00325</v>
       </c>
       <c r="EC6" t="n">
         <v>0.00204</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.00307</v>
+        <v>0.00289</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.0056</v>
+        <v>0.00576</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.00402</v>
+        <v>0.0038</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.00348</v>
+        <v>0.00366</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.00188</v>
+        <v>0.00198</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.00194</v>
+        <v>0.00197</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.00232</v>
+        <v>0.00235</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.00464</v>
+        <v>0.00477</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.00299</v>
+        <v>0.00286</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.00507</v>
+        <v>0.00528</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.00357</v>
+        <v>0.00332</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.00342</v>
+        <v>0.00324</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.00358</v>
+        <v>0.00347</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.00644</v>
+        <v>0.00646</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.00325</v>
+        <v>0.00322</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.00342</v>
+        <v>0.00315</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.00182</v>
+        <v>0.00193</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.00266</v>
+        <v>0.00247</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.00094</v>
+        <v>0.00098</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.00269</v>
+        <v>0.00255</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.00122</v>
+        <v>0.00118</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.00111</v>
+        <v>0.00104</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.00387</v>
+        <v>0.00359</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.00368</v>
+        <v>0.00376</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.00251</v>
+        <v>0.00259</v>
       </c>
       <c r="FC6" t="n">
         <v>0.00404</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.00152</v>
+        <v>0.00149</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.00192</v>
+        <v>0.00185</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.00203</v>
+        <v>0.00194</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.00444</v>
+        <v>0.00414</v>
       </c>
       <c r="FH6" t="n">
         <v>0.00106</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.00435</v>
+        <v>0.00422</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.00255</v>
+        <v>0.00264</v>
       </c>
       <c r="FK6" t="n">
         <v>0.00408</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.00217</v>
+        <v>0.002</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.00239</v>
+        <v>0.00226</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.00162</v>
+        <v>0.00158</v>
       </c>
       <c r="FO6" t="n">
+        <v>0.00258</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0.00481</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0.00373</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0.00289</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0.00342</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>0.00173</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="GN6" t="n">
         <v>0.00269</v>
       </c>
-      <c r="FP6" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0.00394</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0.00413</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0.00242</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0.00414</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0.00077</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0.00502</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0.00215</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0.00354</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>0.00274</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0.00344</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="GC6" t="n">
+      <c r="GO6" t="n">
+        <v>0.00253</v>
+      </c>
+      <c r="GP6" t="n">
         <v>0.00076</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0.00303</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0.00302</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0.00346</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0.00075</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0.00086</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0.00317</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0.00186</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0.00181</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0.00074</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0.00326</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0.00256</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0.00271</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0.00074</v>
       </c>
       <c r="GQ6" t="n">
         <v>0.00086</v>
       </c>
       <c r="GR6" t="n">
-        <v>0.00059</v>
+        <v>0.00056</v>
       </c>
       <c r="GS6" t="n">
-        <v>0.0031</v>
+        <v>0.00296</v>
       </c>
       <c r="GT6" t="n">
-        <v>0.00145</v>
+        <v>0.00138</v>
       </c>
       <c r="GU6" t="n">
-        <v>0.00169</v>
+        <v>0.00167</v>
       </c>
       <c r="GV6" t="n">
-        <v>0.00103</v>
+        <v>0.001</v>
       </c>
       <c r="GW6" t="n">
-        <v>0.0025</v>
+        <v>0.00249</v>
       </c>
       <c r="GX6" t="n">
-        <v>0.00404</v>
+        <v>0.0041</v>
       </c>
       <c r="GY6" t="n">
-        <v>0.0011</v>
+        <v>0.00111</v>
       </c>
       <c r="GZ6" t="n">
-        <v>0.00063</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="HA6" t="n">
-        <v>0.00295</v>
+        <v>0.00269</v>
       </c>
       <c r="HB6" t="n">
-        <v>0.00128</v>
+        <v>0.00125</v>
       </c>
       <c r="HC6" t="n">
-        <v>0.00195</v>
+        <v>0.00189</v>
       </c>
       <c r="HD6" t="n">
-        <v>0.00251</v>
+        <v>0.00244</v>
       </c>
       <c r="HE6" t="n">
-        <v>0.00172</v>
+        <v>0.00177</v>
       </c>
       <c r="HF6" t="n">
-        <v>0.00225</v>
+        <v>0.0023</v>
       </c>
       <c r="HG6" t="n">
-        <v>0.001</v>
+        <v>0.00102</v>
       </c>
       <c r="HH6" t="n">
-        <v>0.00127</v>
+        <v>0.00123</v>
       </c>
       <c r="HI6" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="HJ6" t="n">
         <v>0.00069</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>0.00068</v>
       </c>
       <c r="HK6" t="n">
         <v>0.00132</v>
       </c>
       <c r="HL6" t="n">
-        <v>0.00268</v>
+        <v>0.0028</v>
       </c>
       <c r="HM6" t="n">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="HN6" t="n">
-        <v>0.00212</v>
+        <v>0.00221</v>
       </c>
       <c r="HO6" t="n">
-        <v>0.00248</v>
+        <v>0.00259</v>
       </c>
       <c r="HP6" t="n">
-        <v>0.00192</v>
+        <v>0.00186</v>
       </c>
       <c r="HQ6" t="n">
-        <v>0.00238</v>
+        <v>0.00227</v>
       </c>
       <c r="HR6" t="n">
-        <v>0.00078</v>
+        <v>0.00072</v>
       </c>
       <c r="HS6" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="HT6" t="n">
         <v>0.0009</v>
       </c>
-      <c r="HT6" t="n">
-        <v>0.00091</v>
-      </c>
       <c r="HU6" t="n">
-        <v>0.00117</v>
+        <v>0.00115</v>
       </c>
       <c r="HV6" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.0009</v>
       </c>
       <c r="HW6" t="n">
         <v>0.00057</v>
       </c>
       <c r="HX6" t="n">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
       <c r="HY6" t="n">
-        <v>0.00158</v>
+        <v>0.00148</v>
       </c>
       <c r="HZ6" t="n">
-        <v>0.00303</v>
+        <v>0.00289</v>
       </c>
       <c r="IA6" t="n">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="IB6" t="n">
-        <v>0.00132</v>
+        <v>0.00124</v>
       </c>
       <c r="IC6" t="n">
-        <v>0.00118</v>
+        <v>0.00112</v>
       </c>
       <c r="ID6" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00059</v>
       </c>
       <c r="IE6" t="n">
-        <v>0.00148</v>
+        <v>0.00155</v>
       </c>
       <c r="IF6" t="n">
-        <v>0.00136</v>
+        <v>0.00139</v>
       </c>
       <c r="IG6" t="n">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="IH6" t="n">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="II6" t="n">
-        <v>0.00115</v>
+        <v>0.00119</v>
       </c>
       <c r="IJ6" t="n">
         <v>0.00051</v>
       </c>
       <c r="IK6" t="n">
-        <v>0.00106</v>
+        <v>0.00099</v>
       </c>
       <c r="IL6" t="n">
-        <v>0.00106</v>
+        <v>0.00105</v>
       </c>
       <c r="IM6" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00059</v>
       </c>
       <c r="IN6" t="n">
-        <v>0.00051</v>
+        <v>0.00052</v>
       </c>
       <c r="IO6" t="n">
-        <v>0.00052</v>
+        <v>0.00054</v>
       </c>
       <c r="IP6" t="n">
-        <v>0.00049</v>
+        <v>0.00046</v>
       </c>
       <c r="IQ6" t="n">
         <v>0.00046</v>
@@ -5553,13 +5553,13 @@
         <v>0.00045</v>
       </c>
       <c r="IS6" t="n">
-        <v>0.00041</v>
+        <v>0.00042</v>
       </c>
       <c r="IT6" t="n">
         <v>0.00035</v>
       </c>
       <c r="IU6" t="n">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="IV6" t="n">
         <v>0.00036</v>
@@ -5573,745 +5573,745 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02143</v>
+        <v>0.02034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07885</v>
+        <v>0.07749</v>
       </c>
       <c r="E7" t="n">
-        <v>0.95025</v>
+        <v>0.95042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03504</v>
+        <v>0.03434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05897</v>
+        <v>0.05417</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01814</v>
+        <v>0.01748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04233</v>
+        <v>0.04075</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01444</v>
+        <v>0.01381</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0287</v>
+        <v>0.02737</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03719</v>
+        <v>0.03674</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02782</v>
+        <v>0.027</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02391</v>
+        <v>0.02325</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0217</v>
+        <v>0.02087</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02601</v>
+        <v>0.02533</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01511</v>
+        <v>0.01452</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02889</v>
+        <v>0.0276</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04098</v>
+        <v>0.03946</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02545</v>
+        <v>0.02429</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0251</v>
+        <v>0.02339</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0288</v>
+        <v>0.02847</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02799</v>
+        <v>0.02719</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03493</v>
+        <v>0.03488</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02119</v>
+        <v>0.02023</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03394</v>
+        <v>0.03193</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0162</v>
+        <v>0.01549</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01891</v>
+        <v>0.01804</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02338</v>
+        <v>0.02277</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0228</v>
+        <v>0.02137</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02376</v>
+        <v>0.02293</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03016</v>
+        <v>0.02903</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00619</v>
+        <v>0.00587</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0234</v>
+        <v>0.0223</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01528</v>
+        <v>0.01453</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03509</v>
+        <v>0.03343</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.02114</v>
+        <v>0.02075</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02355</v>
+        <v>0.02329</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.03316</v>
+        <v>0.03252</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02709</v>
+        <v>0.02706</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01118</v>
+        <v>0.01011</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01019</v>
+        <v>0.00992</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01922</v>
+        <v>0.01833</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01534</v>
+        <v>0.0152</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01883</v>
+        <v>0.01775</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01633</v>
+        <v>0.01612</v>
       </c>
       <c r="AU7" t="n">
+        <v>0.01441</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.02005</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.02277</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.01371</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.02738</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.02716</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.01082</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.008189999999999999</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.01399</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.01622</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.04053</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.01003</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.02118</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.01021</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.01953</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.01586</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.01907</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.01109</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.01427</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.02146</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.01509</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.01539</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.02604</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.01066</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.00962</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.01483</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.01202</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.01554</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.01435</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.01562</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.01352</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.01747</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.01463</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.01424</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.009939999999999999</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.01344</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.01734</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.01658</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.01653</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.01334</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.00963</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.01295</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.01477</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.01061</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.01025</v>
+      </c>
+      <c r="CR7" t="n">
         <v>0.01485</v>
       </c>
-      <c r="AV7" t="n">
-        <v>0.02078</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.01444</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.02921</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.02864</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.01128</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.00844</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0.01408</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0.02149</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0.01718</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0.04046</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0.01085</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0.02251</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0.01101</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.02006</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0.01639</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.01975</v>
-      </c>
-      <c r="BM7" t="n">
+      <c r="CS7" t="n">
+        <v>0.00732</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.00754</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.01388</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.01211</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.00738</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.01893</v>
+      </c>
+      <c r="CZ7" t="n">
         <v>0.0112</v>
       </c>
-      <c r="BN7" t="n">
-        <v>0.01491</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0.02247</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.01592</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.01571</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0.0263</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0.00517</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0.01099</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0.01037</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0.01527</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0.01263</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0.01618</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0.01451</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0.01679</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0.01408</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0.01839</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0.01559</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0.01446</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0.01004</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0.01398</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0.01779</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0.01691</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0.01753</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0.01358</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0.01084</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0.009849999999999999</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0.01356</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0.01506</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0.01063</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0.01064</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0.01575</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>0.00733</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0.00783</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0.01072</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0.01441</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0.01257</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0.00756</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0.01996</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>0.01144</v>
-      </c>
       <c r="DA7" t="n">
-        <v>0.0067</v>
+        <v>0.00641</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.00692</v>
+        <v>0.0066</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.00323</v>
+        <v>0.00316</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.01117</v>
+        <v>0.01119</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.00771</v>
+        <v>0.00715</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.00678</v>
+        <v>0.00651</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.00137</v>
+        <v>0.00134</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00469</v>
+        <v>0.00459</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0061</v>
+        <v>0.00585</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.00351</v>
+        <v>0.00334</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0086</v>
+        <v>0.00847</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0052</v>
+        <v>0.00519</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.01053</v>
+        <v>0.0101</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.00856</v>
+        <v>0.00835</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.01375</v>
+        <v>0.01305</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.01063</v>
+        <v>0.01011</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.00494</v>
+        <v>0.00461</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0056</v>
+        <v>0.00539</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0022</v>
+        <v>0.00216</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.01089</v>
+        <v>0.01039</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.01221</v>
+        <v>0.01179</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01253</v>
+        <v>0.01191</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.01443</v>
+        <v>0.01403</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.008460000000000001</v>
+        <v>0.00812</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.00763</v>
+        <v>0.00718</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01026</v>
+        <v>0.00966</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.00674</v>
+        <v>0.00629</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.00625</v>
+        <v>0.00588</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.00263</v>
+        <v>0.00259</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.00571</v>
+        <v>0.00546</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.00551</v>
+        <v>0.00537</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0076</v>
+        <v>0.00724</v>
       </c>
       <c r="EG7" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.00181</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.00362</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.00596</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.00618</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.00356</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.00598</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="ER7" t="n">
         <v>0.0036</v>
       </c>
-      <c r="EH7" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>0.00184</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>0.00358</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>0.00616</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>0.00646</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>0.00364</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>0.00636</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0.00681</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0.00732</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0.01316</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0.0039</v>
-      </c>
       <c r="ES7" t="n">
-        <v>0.00667</v>
+        <v>0.00615</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.00176</v>
+        <v>0.00171</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.00433</v>
+        <v>0.00399</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.00179</v>
+        <v>0.00173</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.00601</v>
+        <v>0.00565</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.00239</v>
+        <v>0.00237</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.00218</v>
+        <v>0.00215</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01414</v>
+        <v>0.01317</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.00347</v>
+        <v>0.00337</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.00417</v>
+        <v>0.0041</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.00334</v>
+        <v>0.00325</v>
       </c>
       <c r="FD7" t="n">
         <v>0.00263</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.00317</v>
+        <v>0.00309</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.00416</v>
+        <v>0.00399</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.01077</v>
+        <v>0.01021</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.00106</v>
+        <v>0.00103</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.00557</v>
+        <v>0.00538</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.00343</v>
+        <v>0.0034</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.00703</v>
+        <v>0.00673</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.00574</v>
+        <v>0.00543</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.00488</v>
+        <v>0.00479</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.00159</v>
+        <v>0.0015</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.00501</v>
+        <v>0.00482</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.00294</v>
+        <v>0.00293</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.008</v>
+        <v>0.00781</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.00597</v>
+        <v>0.00566</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.00619</v>
+        <v>0.00605</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.00644</v>
+        <v>0.00614</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0018</v>
+        <v>0.00177</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.00842</v>
+        <v>0.00817</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.00473</v>
+        <v>0.00442</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.00405</v>
+        <v>0.00393</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00365</v>
+        <v>0.00342</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.00349</v>
+        <v>0.0034</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.00529</v>
+        <v>0.00523</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.00531</v>
+        <v>0.0051</v>
       </c>
       <c r="GC7" t="n">
         <v>0.00075</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.00466</v>
+        <v>0.00446</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0027</v>
+        <v>0.00262</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.00315</v>
+        <v>0.00313</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.00166</v>
+        <v>0.00165</v>
       </c>
       <c r="GH7" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.0009</v>
       </c>
       <c r="GI7" t="n">
-        <v>0.00411</v>
+        <v>0.00397</v>
       </c>
       <c r="GJ7" t="n">
-        <v>0.00377</v>
+        <v>0.00364</v>
       </c>
       <c r="GK7" t="n">
-        <v>0.00436</v>
+        <v>0.00415</v>
       </c>
       <c r="GL7" t="n">
-        <v>0.00076</v>
+        <v>0.00075</v>
       </c>
       <c r="GM7" t="n">
-        <v>0.00393</v>
+        <v>0.00378</v>
       </c>
       <c r="GN7" t="n">
-        <v>0.00425</v>
+        <v>0.00417</v>
       </c>
       <c r="GO7" t="n">
-        <v>0.00343</v>
+        <v>0.00329</v>
       </c>
       <c r="GP7" t="n">
-        <v>0.00123</v>
+        <v>0.00124</v>
       </c>
       <c r="GQ7" t="n">
-        <v>0.00143</v>
+        <v>0.0014</v>
       </c>
       <c r="GR7" t="n">
-        <v>0.00126</v>
+        <v>0.00122</v>
       </c>
       <c r="GS7" t="n">
-        <v>0.00415</v>
+        <v>0.00409</v>
       </c>
       <c r="GT7" t="n">
-        <v>0.00267</v>
+        <v>0.00255</v>
       </c>
       <c r="GU7" t="n">
-        <v>0.00315</v>
+        <v>0.00312</v>
       </c>
       <c r="GV7" t="n">
         <v>0.00147</v>
       </c>
       <c r="GW7" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>0.00291</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>0.00082</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>0.00244</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>0.00113</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>0.00167</v>
+      </c>
+      <c r="HL7" t="n">
         <v>0.00155</v>
       </c>
-      <c r="GX7" t="n">
-        <v>0.00327</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0.00124</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0.00092</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0.00516</v>
-      </c>
-      <c r="HB7" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="HC7" t="n">
-        <v>0.00269</v>
-      </c>
-      <c r="HD7" t="n">
-        <v>0.00456</v>
-      </c>
-      <c r="HE7" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="HF7" t="n">
-        <v>0.00289</v>
-      </c>
-      <c r="HG7" t="n">
+      <c r="HM7" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>0.00164</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>0.00191</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0.00168</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>0.00119</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="HX7" t="n">
         <v>0.00084</v>
       </c>
-      <c r="HH7" t="n">
-        <v>0.00248</v>
-      </c>
-      <c r="HI7" t="n">
-        <v>0.00117</v>
-      </c>
-      <c r="HJ7" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="HK7" t="n">
-        <v>0.00181</v>
-      </c>
-      <c r="HL7" t="n">
-        <v>0.00158</v>
-      </c>
-      <c r="HM7" t="n">
-        <v>0.00053</v>
-      </c>
-      <c r="HN7" t="n">
-        <v>0.00174</v>
-      </c>
-      <c r="HO7" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="HP7" t="n">
-        <v>0.00195</v>
-      </c>
-      <c r="HQ7" t="n">
-        <v>0.00375</v>
-      </c>
-      <c r="HR7" t="n">
+      <c r="HY7" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>0.0009700000000000001</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="IC7" t="n">
         <v>0.00144</v>
-      </c>
-      <c r="HS7" t="n">
-        <v>0.00166</v>
-      </c>
-      <c r="HT7" t="n">
-        <v>0.00186</v>
-      </c>
-      <c r="HU7" t="n">
-        <v>0.00076</v>
-      </c>
-      <c r="HV7" t="n">
-        <v>0.00121</v>
-      </c>
-      <c r="HW7" t="n">
-        <v>0.00054</v>
-      </c>
-      <c r="HX7" t="n">
-        <v>0.00086</v>
-      </c>
-      <c r="HY7" t="n">
-        <v>0.00236</v>
-      </c>
-      <c r="HZ7" t="n">
-        <v>0.00365</v>
-      </c>
-      <c r="IA7" t="n">
-        <v>0.00103</v>
-      </c>
-      <c r="IB7" t="n">
-        <v>0.00222</v>
-      </c>
-      <c r="IC7" t="n">
-        <v>0.00153</v>
       </c>
       <c r="ID7" t="n">
         <v>0.00098</v>
       </c>
       <c r="IE7" t="n">
-        <v>0.00109</v>
+        <v>0.00108</v>
       </c>
       <c r="IF7" t="n">
-        <v>0.00127</v>
+        <v>0.00126</v>
       </c>
       <c r="IG7" t="n">
-        <v>0.00066</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="IH7" t="n">
-        <v>0.00038</v>
+        <v>0.0004</v>
       </c>
       <c r="II7" t="n">
-        <v>0.00142</v>
+        <v>0.00133</v>
       </c>
       <c r="IJ7" t="n">
         <v>0.00046</v>
       </c>
       <c r="IK7" t="n">
-        <v>0.00174</v>
+        <v>0.00167</v>
       </c>
       <c r="IL7" t="n">
-        <v>0.00258</v>
+        <v>0.00247</v>
       </c>
       <c r="IM7" t="n">
-        <v>0.00068</v>
+        <v>0.00066</v>
       </c>
       <c r="IN7" t="n">
         <v>0.00052</v>
       </c>
       <c r="IO7" t="n">
-        <v>0.00051</v>
+        <v>0.00052</v>
       </c>
       <c r="IP7" t="n">
         <v>0.00078</v>
@@ -6320,10 +6320,10 @@
         <v>0.00044</v>
       </c>
       <c r="IR7" t="n">
-        <v>0.00069</v>
+        <v>0.0007</v>
       </c>
       <c r="IS7" t="n">
-        <v>0.00048</v>
+        <v>0.00047</v>
       </c>
       <c r="IT7" t="n">
         <v>0.00034</v>
@@ -6332,7 +6332,7 @@
         <v>0.0003</v>
       </c>
       <c r="IV7" t="n">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="8">
@@ -6343,766 +6343,766 @@
         <v>15.74671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01671</v>
+        <v>0.01609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.055</v>
+        <v>0.05275</v>
       </c>
       <c r="E8" t="n">
-        <v>0.94867</v>
+        <v>0.94822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03217</v>
+        <v>0.03155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03594</v>
+        <v>0.03325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01325</v>
+        <v>0.0126</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02929</v>
+        <v>0.02797</v>
       </c>
       <c r="J8" t="n">
+        <v>0.01048</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02469</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02705</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02677</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01634</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01543</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01037</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.03027</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02235</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.02038</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01954</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.03003</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02601</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01112</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01354</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01698</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01617</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01682</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.01822</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.02615</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01734</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01987</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.02697</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.02327</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.00725</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.00957</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.01445</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01295</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.01241</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.01299</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01735</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.009480000000000001</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.00692</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.01418</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.01905</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.01409</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.04058</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.00708</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.01631</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.01765</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.01097</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.01694</v>
+      </c>
+      <c r="BM8" t="n">
         <v>0.01082</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.02524</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02729</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.02734</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.01691</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.01625</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02388</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.01087</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0218</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.03222</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02703</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02535</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.02082</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.02047</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.03054</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.01772</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.02815</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="BN8" t="n">
+        <v>0.01137</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.01706</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.01141</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.01284</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.02486</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.00311</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.00876</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.007849999999999999</v>
+      </c>
+      <c r="BW8" t="n">
         <v>0.01167</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="BX8" t="n">
+        <v>0.01152</v>
+      </c>
+      <c r="BY8" t="n">
         <v>0.01421</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.01746</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.01756</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.02428</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.00418</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.01935</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.01064</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.02834</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.01815</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.0283</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.02362</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.008160000000000001</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.009849999999999999</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.01358</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.01352</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.01286</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.01248</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.01826</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.02187</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.02114</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0.02215</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.009639999999999999</v>
-      </c>
-      <c r="BB8" t="n">
+      <c r="BZ8" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.01079</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.01143</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.01363</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.01178</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.00881</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.01081</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.01609</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.01369</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.01407</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.01121</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.008750000000000001</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.01077</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.008240000000000001</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.01124</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.00728</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.00565</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.008970000000000001</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.00996</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.01077</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.01295</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.00788</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.00238</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.009390000000000001</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.00578</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.00381</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.00219</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.00654</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.009010000000000001</v>
+      </c>
+      <c r="DP8" t="n">
         <v>0.0074</v>
       </c>
-      <c r="BC8" t="n">
-        <v>0.01417</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.02013</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.01497</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0.03924</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.00764</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0.01848</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.00886</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0.01814</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0.01157</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0.01808</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0.0111</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0.01191</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0.01821</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0.01225</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0.01315</v>
-      </c>
-      <c r="BR8" t="n">
+      <c r="DQ8" t="n">
+        <v>0.00335</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0.00158</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.00713</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0.01036</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="DX8" t="n">
         <v>0.00664</v>
       </c>
-      <c r="BS8" t="n">
-        <v>0.02542</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0.00919</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0.008489999999999999</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0.01197</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0.01272</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0.01494</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0.01203</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0.01174</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0.01199</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0.01497</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0.01283</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0.01045</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0.00891</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0.01124</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0.0148</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0.01169</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0.009350000000000001</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0.009039999999999999</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0.01221</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0.01008</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0.008970000000000001</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0.01214</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0.00599</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>0.00899</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>0.01045</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0.01129</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0.00596</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0.01373</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>0.00818</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>0.00442</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>0.00248</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>0.00932</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>0.00645</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>0.00513</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>0.00161</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>0.00395</v>
-      </c>
-      <c r="DI8" t="n">
+      <c r="DY8" t="n">
+        <v>0.00536</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0.00728</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.00504</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0.00415</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0.00415</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0.00547</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0.00259</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.00182</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.00319</v>
+      </c>
+      <c r="EK8" t="n">
         <v>0.0053</v>
       </c>
-      <c r="DJ8" t="n">
-        <v>0.00221</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>0.008109999999999999</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>0.00422</v>
-      </c>
-      <c r="DM8" t="n">
-        <v>0.008030000000000001</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>0.00678</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>0.00983</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>0.00827</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>0.00367</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>0.00772</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>0.01077</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>0.01024</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>0.01229</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.00701</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>0.00771</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.00556</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.00472</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>0.00219</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>0.00455</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>0.00439</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>0.00586</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>0.00282</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>0.00192</v>
-      </c>
-      <c r="EI8" t="n">
+      <c r="EL8" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0.00427</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0.00502</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.008070000000000001</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="ET8" t="n">
         <v>0.00144</v>
       </c>
-      <c r="EJ8" t="n">
-        <v>0.00329</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>0.00533</v>
-      </c>
-      <c r="EM8" t="n">
-        <v>0.00424</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>0.00487</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>0.00549</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>0.00929</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>0.00483</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>0.0015</v>
-      </c>
       <c r="EU8" t="n">
-        <v>0.00297</v>
+        <v>0.00267</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.00121</v>
+        <v>0.00114</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.00477</v>
+        <v>0.00444</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0019</v>
+        <v>0.00184</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.00131</v>
+        <v>0.00128</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01109</v>
+        <v>0.00925</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.00285</v>
+        <v>0.00294</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.00367</v>
+        <v>0.00345</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.00275</v>
+        <v>0.00274</v>
       </c>
       <c r="FD8" t="n">
         <v>0.00175</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.00224</v>
+        <v>0.0021</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.00327</v>
+        <v>0.00311</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.01024</v>
+        <v>0.0089</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.00134</v>
+        <v>0.0013</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.00429</v>
+        <v>0.00401</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.00296</v>
+        <v>0.00291</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.00519</v>
+        <v>0.00463</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.00413</v>
+        <v>0.00375</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.00339</v>
+        <v>0.0032</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.00131</v>
+        <v>0.00125</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.00336</v>
+        <v>0.00307</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.00203</v>
+        <v>0.00196</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.00754</v>
+        <v>0.0071</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.005</v>
+        <v>0.00455</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.00477</v>
+        <v>0.00442</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.00419</v>
+        <v>0.00383</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.00114</v>
+        <v>0.00109</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00781</v>
+        <v>0.00721</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.00306</v>
+        <v>0.00281</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.00265</v>
+        <v>0.0025</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.00279</v>
+        <v>0.00259</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.00273</v>
+        <v>0.00249</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.00447</v>
+        <v>0.00422</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0047</v>
+        <v>0.0041</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00071</v>
+        <v>0.00073</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0037</v>
+        <v>0.00349</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.00375</v>
+        <v>0.00372</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.00248</v>
+        <v>0.0024</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
       <c r="GH8" t="n">
         <v>0.00091</v>
       </c>
       <c r="GI8" t="n">
-        <v>0.00356</v>
+        <v>0.00323</v>
       </c>
       <c r="GJ8" t="n">
-        <v>0.00215</v>
+        <v>0.00205</v>
       </c>
       <c r="GK8" t="n">
-        <v>0.00378</v>
+        <v>0.00341</v>
       </c>
       <c r="GL8" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>0.00287</v>
+      </c>
+      <c r="GO8" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>0.00091</v>
+      </c>
+      <c r="GQ8" t="n">
+        <v>0.00096</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="GS8" t="n">
+        <v>0.00338</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>0.00205</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>0.00119</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>0.00389</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="HJ8" t="n">
         <v>0.00066</v>
       </c>
-      <c r="GM8" t="n">
-        <v>0.00331</v>
-      </c>
-      <c r="GN8" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="GO8" t="n">
-        <v>0.00272</v>
-      </c>
-      <c r="GP8" t="n">
-        <v>0.00087</v>
-      </c>
-      <c r="GQ8" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="GR8" t="n">
-        <v>0.00092</v>
-      </c>
-      <c r="GS8" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="GT8" t="n">
-        <v>0.00164</v>
-      </c>
-      <c r="GU8" t="n">
-        <v>0.00209</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>0.00124</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>0.00169</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0.00102</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0.00069</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0.00314</v>
-      </c>
-      <c r="HB8" t="n">
-        <v>0.00106</v>
-      </c>
-      <c r="HC8" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="HD8" t="n">
-        <v>0.00353</v>
-      </c>
-      <c r="HE8" t="n">
-        <v>0.00122</v>
-      </c>
-      <c r="HF8" t="n">
-        <v>0.00257</v>
-      </c>
-      <c r="HG8" t="n">
+      <c r="HK8" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>0.00205</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>0.00163</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>0.0009300000000000001</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="HV8" t="n">
         <v>0.00071</v>
-      </c>
-      <c r="HH8" t="n">
-        <v>0.00203</v>
-      </c>
-      <c r="HI8" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="HJ8" t="n">
-        <v>0.00073</v>
-      </c>
-      <c r="HK8" t="n">
-        <v>0.00123</v>
-      </c>
-      <c r="HL8" t="n">
-        <v>0.00166</v>
-      </c>
-      <c r="HM8" t="n">
-        <v>0.00061</v>
-      </c>
-      <c r="HN8" t="n">
-        <v>0.00192</v>
-      </c>
-      <c r="HO8" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="HP8" t="n">
-        <v>0.00158</v>
-      </c>
-      <c r="HQ8" t="n">
-        <v>0.00286</v>
-      </c>
-      <c r="HR8" t="n">
-        <v>0.00103</v>
-      </c>
-      <c r="HS8" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="HT8" t="n">
-        <v>0.00119</v>
-      </c>
-      <c r="HU8" t="n">
-        <v>0.00075</v>
-      </c>
-      <c r="HV8" t="n">
-        <v>0.00075</v>
       </c>
       <c r="HW8" t="n">
         <v>0.00061</v>
       </c>
       <c r="HX8" t="n">
-        <v>0.00112</v>
+        <v>0.00117</v>
       </c>
       <c r="HY8" t="n">
-        <v>0.0015</v>
+        <v>0.00137</v>
       </c>
       <c r="HZ8" t="n">
-        <v>0.00253</v>
+        <v>0.00246</v>
       </c>
       <c r="IA8" t="n">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="IB8" t="n">
-        <v>0.00181</v>
+        <v>0.00166</v>
       </c>
       <c r="IC8" t="n">
-        <v>0.00142</v>
+        <v>0.00131</v>
       </c>
       <c r="ID8" t="n">
-        <v>0.00063</v>
+        <v>0.00061</v>
       </c>
       <c r="IE8" t="n">
-        <v>0.00206</v>
+        <v>0.00233</v>
       </c>
       <c r="IF8" t="n">
-        <v>0.0013</v>
+        <v>0.00123</v>
       </c>
       <c r="IG8" t="n">
         <v>0.00044</v>
       </c>
       <c r="IH8" t="n">
-        <v>0.00053</v>
+        <v>0.00055</v>
       </c>
       <c r="II8" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00078</v>
       </c>
       <c r="IJ8" t="n">
         <v>0.00056</v>
       </c>
       <c r="IK8" t="n">
-        <v>0.00106</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="IL8" t="n">
-        <v>0.002</v>
+        <v>0.00164</v>
       </c>
       <c r="IM8" t="n">
-        <v>0.00051</v>
+        <v>0.00054</v>
       </c>
       <c r="IN8" t="n">
         <v>0.00057</v>
       </c>
       <c r="IO8" t="n">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
       <c r="IP8" t="n">
-        <v>0.00051</v>
+        <v>0.00048</v>
       </c>
       <c r="IQ8" t="n">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="IR8" t="n">
-        <v>0.00066</v>
+        <v>0.00068</v>
       </c>
       <c r="IS8" t="n">
         <v>0.00039</v>
       </c>
       <c r="IT8" t="n">
-        <v>0.00042</v>
+        <v>0.00048</v>
       </c>
       <c r="IU8" t="n">
         <v>0.00036</v>
       </c>
       <c r="IV8" t="n">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
     </row>
   </sheetData>
